--- a/用例数据/深A/GDR数据/限售股/测试结果.xlsx
+++ b/用例数据/深A/GDR数据/限售股/测试结果.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\深A\GDR数据\限售股\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="9384" tabRatio="734" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21216" windowHeight="9384" tabRatio="734" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5166" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5166" uniqueCount="511">
   <si>
     <t>account</t>
   </si>
@@ -1605,18 +1610,27 @@
   <si>
     <t>virtualRegistrationRights</t>
   </si>
+  <si>
+    <t>236000.0000</t>
+  </si>
+  <si>
+    <t>2.1600</t>
+  </si>
+  <si>
+    <t>104000</t>
+  </si>
+  <si>
+    <t>0.09076923</t>
+  </si>
+  <si>
+    <t>245440.0000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1639,151 +1653,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1796,194 +1673,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1991,317 +1682,34 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2588,42 +1996,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ET63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A57" sqref="$A57:$XFD63"/>
+      <selection activeCell="A57" sqref="A57:XFD63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88888888888889" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88888888888889" style="1"/>
-    <col min="4" max="4" width="14.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88888888888889" style="1"/>
-    <col min="6" max="6" width="19.1111111111111" style="1" customWidth="1"/>
-    <col min="7" max="11" width="8.88888888888889" style="1"/>
-    <col min="12" max="12" width="14.3333333333333" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.3333333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88888888888889" style="1"/>
-    <col min="15" max="15" width="12.2222222222222" style="1" customWidth="1"/>
-    <col min="16" max="25" width="8.88888888888889" style="1"/>
-    <col min="26" max="26" width="17.6666666666667" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.6666666666667" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="7.88671875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="19.109375" style="1" customWidth="1"/>
+    <col min="7" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="14.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="12.21875" style="1" customWidth="1"/>
+    <col min="16" max="25" width="8.88671875" style="1"/>
+    <col min="26" max="26" width="17.6640625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.6640625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="2:2">
+    <row r="1" spans="1:150" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="2:150">
+    <row r="2" spans="1:150" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3072,7 +2480,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:150">
+    <row r="3" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>150</v>
       </c>
@@ -3109,7 +2517,6 @@
       <c r="L3" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="M3" s="1"/>
       <c r="N3" s="2" t="s">
         <v>158</v>
       </c>
@@ -3489,7 +2896,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:150">
+    <row r="4" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>150</v>
       </c>
@@ -3526,7 +2933,6 @@
       <c r="L4" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="M4" s="1"/>
       <c r="N4" s="2" t="s">
         <v>180</v>
       </c>
@@ -3912,7 +3318,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:150">
+    <row r="5" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>189</v>
       </c>
@@ -3949,7 +3355,6 @@
       <c r="L5" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="M5" s="1"/>
       <c r="N5" s="2" t="s">
         <v>190</v>
       </c>
@@ -4329,7 +3734,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:150">
+    <row r="6" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -4366,7 +3771,6 @@
       <c r="L6" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="M6" s="1"/>
       <c r="N6" s="2" t="s">
         <v>192</v>
       </c>
@@ -4752,7 +4156,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:150">
+    <row r="7" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>193</v>
       </c>
@@ -4789,7 +4193,6 @@
       <c r="L7" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="M7" s="1"/>
       <c r="N7" s="2" t="s">
         <v>190</v>
       </c>
@@ -5169,7 +4572,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:150">
+    <row r="8" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>194</v>
       </c>
@@ -5206,7 +4609,6 @@
       <c r="L8" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="M8" s="1"/>
       <c r="N8" s="2" t="s">
         <v>192</v>
       </c>
@@ -5592,12 +4994,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="2:2">
+    <row r="10" spans="1:150" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="2:88">
+    <row r="11" spans="1:150" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
@@ -5860,7 +5262,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:88">
+    <row r="12" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>150</v>
       </c>
@@ -6126,7 +5528,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:88">
+    <row r="13" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>150</v>
       </c>
@@ -6392,7 +5794,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:88">
+    <row r="14" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>189</v>
       </c>
@@ -6658,7 +6060,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:88">
+    <row r="15" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>189</v>
       </c>
@@ -6924,7 +6326,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="1:88">
+    <row r="16" spans="1:150" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>193</v>
       </c>
@@ -7190,7 +6592,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:88">
+    <row r="17" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>194</v>
       </c>
@@ -7456,12 +6858,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" spans="2:2">
+    <row r="20" spans="1:141" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="2:16">
+    <row r="21" spans="1:141" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
@@ -7508,7 +6910,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" spans="1:16">
+    <row r="22" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>150</v>
       </c>
@@ -7558,7 +6960,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" spans="1:16">
+    <row r="23" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>150</v>
       </c>
@@ -7608,7 +7010,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:16">
+    <row r="24" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>189</v>
       </c>
@@ -7658,7 +7060,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:16">
+    <row r="25" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>189</v>
       </c>
@@ -7708,7 +7110,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:16">
+    <row r="26" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>193</v>
       </c>
@@ -7758,7 +7160,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:16">
+    <row r="27" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>194</v>
       </c>
@@ -7808,12 +7210,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="2:2">
+    <row r="31" spans="1:141" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="2:141">
+    <row r="32" spans="1:141" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
@@ -8235,7 +7637,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:141">
+    <row r="33" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>189</v>
       </c>
@@ -8263,8 +7665,6 @@
       <c r="I33" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
       <c r="L33" s="1" t="s">
         <v>152</v>
       </c>
@@ -8575,7 +7975,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:141">
+    <row r="34" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>189</v>
       </c>
@@ -8603,8 +8003,6 @@
       <c r="I34" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
         <v>179</v>
       </c>
@@ -8915,7 +8313,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:141">
+    <row r="35" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>189</v>
       </c>
@@ -8940,9 +8338,6 @@
       <c r="H35" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
       <c r="L35" s="1" t="s">
         <v>152</v>
       </c>
@@ -9244,7 +8639,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:141">
+    <row r="36" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>189</v>
       </c>
@@ -9269,9 +8664,6 @@
       <c r="H36" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
       <c r="L36" s="1" t="s">
         <v>179</v>
       </c>
@@ -9573,7 +8965,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:141">
+    <row r="37" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>193</v>
       </c>
@@ -9601,8 +8993,6 @@
       <c r="I37" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
       <c r="L37" s="1" t="s">
         <v>152</v>
       </c>
@@ -9916,7 +9306,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:141">
+    <row r="38" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>194</v>
       </c>
@@ -9944,8 +9334,6 @@
       <c r="I38" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
         <v>152</v>
       </c>
@@ -10253,7 +9641,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:141">
+    <row r="39" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>193</v>
       </c>
@@ -10281,8 +9669,6 @@
       <c r="I39" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
         <v>179</v>
       </c>
@@ -10596,7 +9982,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:141">
+    <row r="40" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>194</v>
       </c>
@@ -10624,8 +10010,6 @@
       <c r="I40" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
         <v>179</v>
       </c>
@@ -10933,12 +10317,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="1" spans="2:2">
+    <row r="42" spans="1:141" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="1" spans="2:71">
+    <row r="43" spans="1:141" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
@@ -11150,7 +10534,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:71">
+    <row r="44" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>189</v>
       </c>
@@ -11169,7 +10553,6 @@
       <c r="F44" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
         <v>410</v>
       </c>
@@ -11200,8 +10583,6 @@
       <c r="Q44" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
       <c r="T44" s="1" t="s">
         <v>151</v>
       </c>
@@ -11211,15 +10592,12 @@
       <c r="V44" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="W44" s="1"/>
       <c r="X44" s="1" t="s">
         <v>276</v>
       </c>
       <c r="Y44" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
       <c r="AC44" s="2" t="s">
         <v>282</v>
       </c>
@@ -11314,7 +10692,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:71">
+    <row r="45" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>189</v>
       </c>
@@ -11333,7 +10711,6 @@
       <c r="F45" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
         <v>424</v>
       </c>
@@ -11364,8 +10741,6 @@
       <c r="Q45" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
       <c r="T45" s="1" t="s">
         <v>151</v>
       </c>
@@ -11375,15 +10750,12 @@
       <c r="V45" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="W45" s="1"/>
       <c r="X45" s="1" t="s">
         <v>286</v>
       </c>
       <c r="Y45" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
       <c r="AC45" s="2" t="s">
         <v>492</v>
       </c>
@@ -11478,7 +10850,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:71">
+    <row r="46" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>189</v>
       </c>
@@ -11497,8 +10869,6 @@
       <c r="F46" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
         <v>277</v>
       </c>
@@ -11526,7 +10896,6 @@
       <c r="Q46" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="R46" s="1"/>
       <c r="S46" s="1" t="s">
         <v>495</v>
       </c>
@@ -11539,13 +10908,10 @@
       <c r="V46" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="W46" s="1"/>
       <c r="X46" s="1" t="s">
         <v>276</v>
       </c>
       <c r="Y46" s="2"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
       <c r="AC46" s="2" t="s">
         <v>159</v>
       </c>
@@ -11640,7 +11006,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:71">
+    <row r="47" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>189</v>
       </c>
@@ -11659,8 +11025,6 @@
       <c r="F47" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
         <v>277</v>
       </c>
@@ -11688,7 +11052,6 @@
       <c r="Q47" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="R47" s="1"/>
       <c r="S47" s="1" t="s">
         <v>495</v>
       </c>
@@ -11701,13 +11064,10 @@
       <c r="V47" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="W47" s="1"/>
       <c r="X47" s="1" t="s">
         <v>286</v>
       </c>
       <c r="Y47" s="2"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
       <c r="AC47" s="2" t="s">
         <v>159</v>
       </c>
@@ -11802,7 +11162,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:71">
+    <row r="48" spans="1:141" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>193</v>
       </c>
@@ -11821,7 +11181,6 @@
       <c r="F48" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
         <v>410</v>
       </c>
@@ -11867,15 +11226,12 @@
       <c r="V48" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="W48" s="1"/>
       <c r="X48" s="1" t="s">
         <v>276</v>
       </c>
       <c r="Y48" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
       <c r="AC48" s="2" t="s">
         <v>282</v>
       </c>
@@ -11973,7 +11329,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:71">
+    <row r="49" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>194</v>
       </c>
@@ -11992,7 +11348,6 @@
       <c r="F49" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
         <v>424</v>
       </c>
@@ -12038,15 +11393,12 @@
       <c r="V49" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="W49" s="1"/>
       <c r="X49" s="1" t="s">
         <v>286</v>
       </c>
       <c r="Y49" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
       <c r="AC49" s="2" t="s">
         <v>492</v>
       </c>
@@ -12144,12 +11496,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" spans="2:2">
+    <row r="56" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" spans="2:71">
+    <row r="57" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>1</v>
       </c>
@@ -12361,7 +11713,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" spans="1:71">
+    <row r="58" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>189</v>
       </c>
@@ -12380,7 +11732,6 @@
       <c r="F58" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
         <v>410</v>
       </c>
@@ -12411,8 +11762,6 @@
       <c r="Q58" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
       <c r="T58" s="1" t="s">
         <v>151</v>
       </c>
@@ -12422,15 +11771,12 @@
       <c r="V58" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="W58" s="1"/>
       <c r="X58" s="1" t="s">
         <v>276</v>
       </c>
       <c r="Y58" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="Z58" s="1"/>
-      <c r="AA58" s="1"/>
       <c r="AC58" s="2" t="s">
         <v>282</v>
       </c>
@@ -12525,7 +11871,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" spans="1:71">
+    <row r="59" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>189</v>
       </c>
@@ -12544,7 +11890,6 @@
       <c r="F59" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G59" s="1"/>
       <c r="H59" s="1" t="s">
         <v>424</v>
       </c>
@@ -12575,8 +11920,6 @@
       <c r="Q59" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="R59" s="1"/>
-      <c r="S59" s="1"/>
       <c r="T59" s="1" t="s">
         <v>151</v>
       </c>
@@ -12586,15 +11929,12 @@
       <c r="V59" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="W59" s="1"/>
       <c r="X59" s="1" t="s">
         <v>286</v>
       </c>
       <c r="Y59" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
       <c r="AC59" s="2" t="s">
         <v>492</v>
       </c>
@@ -12689,7 +12029,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" spans="1:71">
+    <row r="60" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>189</v>
       </c>
@@ -12708,8 +12048,6 @@
       <c r="F60" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
         <v>277</v>
       </c>
@@ -12737,7 +12075,6 @@
       <c r="Q60" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="R60" s="1"/>
       <c r="S60" s="1" t="s">
         <v>495</v>
       </c>
@@ -12750,13 +12087,9 @@
       <c r="V60" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="W60" s="1"/>
       <c r="X60" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
-      <c r="AA60" s="1"/>
       <c r="AC60" s="2" t="s">
         <v>159</v>
       </c>
@@ -12851,7 +12184,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" spans="1:71">
+    <row r="61" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>189</v>
       </c>
@@ -12870,8 +12203,6 @@
       <c r="F61" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
         <v>277</v>
       </c>
@@ -12899,7 +12230,6 @@
       <c r="Q61" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="R61" s="1"/>
       <c r="S61" s="1" t="s">
         <v>495</v>
       </c>
@@ -12912,13 +12242,9 @@
       <c r="V61" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="W61" s="1"/>
       <c r="X61" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
       <c r="AC61" s="2" t="s">
         <v>159</v>
       </c>
@@ -13013,7 +12339,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" spans="1:71">
+    <row r="62" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>193</v>
       </c>
@@ -13032,7 +12358,6 @@
       <c r="F62" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G62" s="1"/>
       <c r="H62" s="1" t="s">
         <v>410</v>
       </c>
@@ -13078,15 +12403,12 @@
       <c r="V62" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="W62" s="1"/>
       <c r="X62" s="1" t="s">
         <v>276</v>
       </c>
       <c r="Y62" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="Z62" s="1"/>
-      <c r="AA62" s="1"/>
       <c r="AC62" s="2" t="s">
         <v>282</v>
       </c>
@@ -13184,7 +12506,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" s="1" customFormat="1" spans="1:71">
+    <row r="63" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>194</v>
       </c>
@@ -13203,7 +12525,6 @@
       <c r="F63" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G63" s="1"/>
       <c r="H63" s="1" t="s">
         <v>424</v>
       </c>
@@ -13249,15 +12570,12 @@
       <c r="V63" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="W63" s="1"/>
       <c r="X63" s="1" t="s">
         <v>286</v>
       </c>
       <c r="Y63" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="Z63" s="1"/>
-      <c r="AA63" s="1"/>
       <c r="AC63" s="2" t="s">
         <v>492</v>
       </c>
@@ -13356,165 +12674,164 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ER3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
-    <col min="4" max="5" width="14.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="14.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="10.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="16.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="15.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="18.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="15.2222222222222" customWidth="1"/>
-    <col min="13" max="13" width="16.4444444444444" customWidth="1"/>
-    <col min="14" max="14" width="17.5555555555556" customWidth="1"/>
-    <col min="15" max="15" width="10.7777777777778" customWidth="1"/>
-    <col min="16" max="16" width="24.2222222222222" customWidth="1"/>
-    <col min="17" max="17" width="7.66666666666667" customWidth="1"/>
-    <col min="18" max="18" width="16.4444444444444" customWidth="1"/>
-    <col min="19" max="19" width="11.8888888888889" customWidth="1"/>
-    <col min="20" max="20" width="16.4444444444444" customWidth="1"/>
-    <col min="21" max="21" width="19.7777777777778" customWidth="1"/>
-    <col min="22" max="22" width="24.2222222222222" customWidth="1"/>
-    <col min="23" max="23" width="11.8888888888889" customWidth="1"/>
+    <col min="1" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" customWidth="1"/>
+    <col min="16" max="16" width="24.21875" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" customWidth="1"/>
+    <col min="18" max="18" width="16.44140625" customWidth="1"/>
+    <col min="19" max="19" width="11.88671875" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" customWidth="1"/>
+    <col min="21" max="21" width="19.77734375" customWidth="1"/>
+    <col min="22" max="22" width="24.21875" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" customWidth="1"/>
     <col min="24" max="24" width="13" customWidth="1"/>
-    <col min="25" max="26" width="14.1111111111111" customWidth="1"/>
-    <col min="27" max="27" width="16.4444444444444" customWidth="1"/>
+    <col min="25" max="26" width="14.109375" customWidth="1"/>
+    <col min="27" max="27" width="16.44140625" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="16.4444444444444" customWidth="1"/>
+    <col min="29" max="29" width="16.44140625" customWidth="1"/>
     <col min="30" max="30" width="13" customWidth="1"/>
-    <col min="31" max="31" width="14.1111111111111" customWidth="1"/>
-    <col min="32" max="32" width="9.66666666666667" customWidth="1"/>
-    <col min="33" max="34" width="17.5555555555556" customWidth="1"/>
-    <col min="35" max="35" width="9.66666666666667" customWidth="1"/>
+    <col min="31" max="31" width="14.109375" customWidth="1"/>
+    <col min="32" max="32" width="9.6640625" customWidth="1"/>
+    <col min="33" max="34" width="17.5546875" customWidth="1"/>
+    <col min="35" max="35" width="9.6640625" customWidth="1"/>
     <col min="36" max="36" width="22" customWidth="1"/>
-    <col min="37" max="37" width="14.1111111111111" customWidth="1"/>
-    <col min="38" max="38" width="18.6666666666667" customWidth="1"/>
-    <col min="39" max="39" width="11.8888888888889" customWidth="1"/>
-    <col min="40" max="40" width="16.4444444444444" customWidth="1"/>
-    <col min="41" max="41" width="10.7777777777778" customWidth="1"/>
+    <col min="37" max="37" width="14.109375" customWidth="1"/>
+    <col min="38" max="38" width="18.6640625" customWidth="1"/>
+    <col min="39" max="39" width="11.88671875" customWidth="1"/>
+    <col min="40" max="40" width="16.44140625" customWidth="1"/>
+    <col min="41" max="41" width="10.77734375" customWidth="1"/>
     <col min="42" max="42" width="13" customWidth="1"/>
     <col min="43" max="43" width="22" customWidth="1"/>
-    <col min="44" max="44" width="8.66666666666667" customWidth="1"/>
-    <col min="45" max="45" width="23.1111111111111" customWidth="1"/>
-    <col min="46" max="47" width="11.8888888888889" customWidth="1"/>
-    <col min="48" max="48" width="5.66666666666667" customWidth="1"/>
-    <col min="49" max="49" width="10.7777777777778" customWidth="1"/>
-    <col min="50" max="50" width="14.1111111111111" customWidth="1"/>
-    <col min="51" max="51" width="17.5555555555556" customWidth="1"/>
-    <col min="52" max="52" width="11.8888888888889" customWidth="1"/>
-    <col min="53" max="53" width="16.4444444444444" customWidth="1"/>
-    <col min="54" max="54" width="19.7777777777778" customWidth="1"/>
-    <col min="55" max="55" width="17.5555555555556" customWidth="1"/>
-    <col min="56" max="56" width="16.4444444444444" customWidth="1"/>
-    <col min="57" max="57" width="15.2222222222222" customWidth="1"/>
-    <col min="58" max="58" width="16.4444444444444" customWidth="1"/>
-    <col min="59" max="59" width="20.8888888888889" customWidth="1"/>
-    <col min="60" max="60" width="15.2222222222222" customWidth="1"/>
-    <col min="61" max="61" width="20.8888888888889" customWidth="1"/>
-    <col min="62" max="62" width="16.4444444444444" customWidth="1"/>
-    <col min="63" max="63" width="17.5555555555556" customWidth="1"/>
-    <col min="64" max="64" width="16.4444444444444" customWidth="1"/>
-    <col min="65" max="66" width="15.2222222222222" customWidth="1"/>
-    <col min="67" max="67" width="17.5555555555556" customWidth="1"/>
-    <col min="68" max="68" width="15.2222222222222" customWidth="1"/>
+    <col min="44" max="44" width="8.6640625" customWidth="1"/>
+    <col min="45" max="45" width="23.109375" customWidth="1"/>
+    <col min="46" max="47" width="11.88671875" customWidth="1"/>
+    <col min="48" max="48" width="5.6640625" customWidth="1"/>
+    <col min="49" max="49" width="10.77734375" customWidth="1"/>
+    <col min="50" max="50" width="14.109375" customWidth="1"/>
+    <col min="51" max="51" width="17.5546875" customWidth="1"/>
+    <col min="52" max="52" width="11.88671875" customWidth="1"/>
+    <col min="53" max="53" width="16.44140625" customWidth="1"/>
+    <col min="54" max="54" width="19.77734375" customWidth="1"/>
+    <col min="55" max="55" width="17.5546875" customWidth="1"/>
+    <col min="56" max="56" width="16.44140625" customWidth="1"/>
+    <col min="57" max="57" width="15.21875" customWidth="1"/>
+    <col min="58" max="58" width="16.44140625" customWidth="1"/>
+    <col min="59" max="59" width="20.88671875" customWidth="1"/>
+    <col min="60" max="60" width="15.21875" customWidth="1"/>
+    <col min="61" max="61" width="20.88671875" customWidth="1"/>
+    <col min="62" max="62" width="16.44140625" customWidth="1"/>
+    <col min="63" max="63" width="17.5546875" customWidth="1"/>
+    <col min="64" max="64" width="16.44140625" customWidth="1"/>
+    <col min="65" max="66" width="15.21875" customWidth="1"/>
+    <col min="67" max="67" width="17.5546875" customWidth="1"/>
+    <col min="68" max="68" width="15.21875" customWidth="1"/>
     <col min="69" max="69" width="13" customWidth="1"/>
-    <col min="70" max="70" width="17.5555555555556" customWidth="1"/>
-    <col min="71" max="71" width="9.66666666666667" customWidth="1"/>
-    <col min="72" max="72" width="10.7777777777778" customWidth="1"/>
+    <col min="70" max="70" width="17.5546875" customWidth="1"/>
+    <col min="71" max="71" width="9.6640625" customWidth="1"/>
+    <col min="72" max="72" width="10.77734375" customWidth="1"/>
     <col min="73" max="73" width="13" customWidth="1"/>
-    <col min="74" max="74" width="10.7777777777778" customWidth="1"/>
-    <col min="75" max="75" width="17.5555555555556" customWidth="1"/>
-    <col min="76" max="76" width="14.1111111111111" customWidth="1"/>
-    <col min="77" max="77" width="18.6666666666667" customWidth="1"/>
+    <col min="74" max="74" width="10.77734375" customWidth="1"/>
+    <col min="75" max="75" width="17.5546875" customWidth="1"/>
+    <col min="76" max="76" width="14.109375" customWidth="1"/>
+    <col min="77" max="77" width="18.6640625" customWidth="1"/>
     <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="17.5555555555556" customWidth="1"/>
-    <col min="80" max="80" width="9.66666666666667" customWidth="1"/>
-    <col min="81" max="81" width="19.7777777777778" customWidth="1"/>
-    <col min="82" max="82" width="15.2222222222222" customWidth="1"/>
-    <col min="83" max="83" width="24.2222222222222" customWidth="1"/>
-    <col min="84" max="85" width="19.7777777777778" customWidth="1"/>
-    <col min="86" max="86" width="18.6666666666667" customWidth="1"/>
-    <col min="87" max="87" width="26.5555555555556" customWidth="1"/>
+    <col min="79" max="79" width="17.5546875" customWidth="1"/>
+    <col min="80" max="80" width="9.6640625" customWidth="1"/>
+    <col min="81" max="81" width="19.77734375" customWidth="1"/>
+    <col min="82" max="82" width="15.21875" customWidth="1"/>
+    <col min="83" max="83" width="24.21875" customWidth="1"/>
+    <col min="84" max="85" width="19.77734375" customWidth="1"/>
+    <col min="86" max="86" width="18.6640625" customWidth="1"/>
+    <col min="87" max="87" width="26.5546875" customWidth="1"/>
     <col min="88" max="88" width="22" customWidth="1"/>
-    <col min="89" max="89" width="25.4444444444444" customWidth="1"/>
+    <col min="89" max="89" width="25.44140625" customWidth="1"/>
     <col min="90" max="90" width="22" customWidth="1"/>
     <col min="91" max="91" width="13" customWidth="1"/>
-    <col min="92" max="92" width="19.7777777777778" customWidth="1"/>
-    <col min="93" max="93" width="16.4444444444444" customWidth="1"/>
-    <col min="94" max="94" width="14.1111111111111" customWidth="1"/>
-    <col min="95" max="95" width="19.7777777777778" customWidth="1"/>
-    <col min="96" max="96" width="15.2222222222222" customWidth="1"/>
-    <col min="97" max="97" width="14.1111111111111" customWidth="1"/>
-    <col min="98" max="98" width="8.66666666666667" customWidth="1"/>
-    <col min="99" max="99" width="16.4444444444444" customWidth="1"/>
-    <col min="100" max="100" width="11.8888888888889" customWidth="1"/>
-    <col min="101" max="101" width="16.4444444444444" customWidth="1"/>
-    <col min="102" max="103" width="19.7777777777778" customWidth="1"/>
-    <col min="104" max="104" width="18.6666666666667" customWidth="1"/>
-    <col min="105" max="105" width="16.4444444444444" customWidth="1"/>
-    <col min="106" max="106" width="8.66666666666667" customWidth="1"/>
-    <col min="107" max="107" width="23.1111111111111" customWidth="1"/>
-    <col min="108" max="108" width="20.8888888888889" customWidth="1"/>
-    <col min="109" max="109" width="19.7777777777778" customWidth="1"/>
-    <col min="110" max="110" width="26.5555555555556" customWidth="1"/>
-    <col min="111" max="111" width="18.6666666666667" customWidth="1"/>
+    <col min="92" max="92" width="19.77734375" customWidth="1"/>
+    <col min="93" max="93" width="16.44140625" customWidth="1"/>
+    <col min="94" max="94" width="14.109375" customWidth="1"/>
+    <col min="95" max="95" width="19.77734375" customWidth="1"/>
+    <col min="96" max="96" width="15.21875" customWidth="1"/>
+    <col min="97" max="97" width="14.109375" customWidth="1"/>
+    <col min="98" max="98" width="8.6640625" customWidth="1"/>
+    <col min="99" max="99" width="16.44140625" customWidth="1"/>
+    <col min="100" max="100" width="11.88671875" customWidth="1"/>
+    <col min="101" max="101" width="16.44140625" customWidth="1"/>
+    <col min="102" max="103" width="19.77734375" customWidth="1"/>
+    <col min="104" max="104" width="18.6640625" customWidth="1"/>
+    <col min="105" max="105" width="16.44140625" customWidth="1"/>
+    <col min="106" max="106" width="8.6640625" customWidth="1"/>
+    <col min="107" max="107" width="23.109375" customWidth="1"/>
+    <col min="108" max="108" width="20.88671875" customWidth="1"/>
+    <col min="109" max="109" width="19.77734375" customWidth="1"/>
+    <col min="110" max="110" width="26.5546875" customWidth="1"/>
+    <col min="111" max="111" width="18.6640625" customWidth="1"/>
     <col min="112" max="112" width="22" customWidth="1"/>
-    <col min="113" max="113" width="24.2222222222222" customWidth="1"/>
-    <col min="114" max="114" width="11.8888888888889" customWidth="1"/>
-    <col min="115" max="116" width="18.6666666666667" customWidth="1"/>
-    <col min="117" max="117" width="14.1111111111111" customWidth="1"/>
-    <col min="118" max="118" width="19.7777777777778" customWidth="1"/>
-    <col min="119" max="119" width="16.4444444444444" customWidth="1"/>
-    <col min="120" max="120" width="14.1111111111111" customWidth="1"/>
-    <col min="121" max="121" width="19.7777777777778" customWidth="1"/>
+    <col min="113" max="113" width="24.21875" customWidth="1"/>
+    <col min="114" max="114" width="11.88671875" customWidth="1"/>
+    <col min="115" max="116" width="18.6640625" customWidth="1"/>
+    <col min="117" max="117" width="14.109375" customWidth="1"/>
+    <col min="118" max="118" width="19.77734375" customWidth="1"/>
+    <col min="119" max="119" width="16.44140625" customWidth="1"/>
+    <col min="120" max="120" width="14.109375" customWidth="1"/>
+    <col min="121" max="121" width="19.77734375" customWidth="1"/>
     <col min="122" max="122" width="13" customWidth="1"/>
-    <col min="123" max="123" width="17.5555555555556" customWidth="1"/>
-    <col min="124" max="124" width="15.2222222222222" customWidth="1"/>
-    <col min="125" max="125" width="19.7777777777778" customWidth="1"/>
-    <col min="126" max="126" width="20.8888888888889" customWidth="1"/>
-    <col min="127" max="127" width="18.6666666666667" customWidth="1"/>
-    <col min="128" max="128" width="24.2222222222222" customWidth="1"/>
-    <col min="129" max="129" width="26.5555555555556" customWidth="1"/>
-    <col min="130" max="130" width="11.8888888888889" customWidth="1"/>
-    <col min="131" max="131" width="18.6666666666667" customWidth="1"/>
-    <col min="132" max="132" width="15.2222222222222" customWidth="1"/>
-    <col min="133" max="133" width="14.1111111111111" customWidth="1"/>
-    <col min="134" max="134" width="15.2222222222222" customWidth="1"/>
-    <col min="135" max="135" width="18.6666666666667" customWidth="1"/>
-    <col min="136" max="136" width="15.2222222222222" customWidth="1"/>
-    <col min="137" max="137" width="20.8888888888889" customWidth="1"/>
-    <col min="138" max="138" width="24.2222222222222" customWidth="1"/>
-    <col min="139" max="139" width="19.7777777777778" customWidth="1"/>
-    <col min="140" max="140" width="15.2222222222222" customWidth="1"/>
+    <col min="123" max="123" width="17.5546875" customWidth="1"/>
+    <col min="124" max="124" width="15.21875" customWidth="1"/>
+    <col min="125" max="125" width="19.77734375" customWidth="1"/>
+    <col min="126" max="126" width="20.88671875" customWidth="1"/>
+    <col min="127" max="127" width="18.6640625" customWidth="1"/>
+    <col min="128" max="128" width="24.21875" customWidth="1"/>
+    <col min="129" max="129" width="26.5546875" customWidth="1"/>
+    <col min="130" max="130" width="11.88671875" customWidth="1"/>
+    <col min="131" max="131" width="18.6640625" customWidth="1"/>
+    <col min="132" max="132" width="15.21875" customWidth="1"/>
+    <col min="133" max="133" width="14.109375" customWidth="1"/>
+    <col min="134" max="134" width="15.21875" customWidth="1"/>
+    <col min="135" max="135" width="18.6640625" customWidth="1"/>
+    <col min="136" max="136" width="15.21875" customWidth="1"/>
+    <col min="137" max="137" width="20.88671875" customWidth="1"/>
+    <col min="138" max="138" width="24.21875" customWidth="1"/>
+    <col min="139" max="139" width="19.77734375" customWidth="1"/>
+    <col min="140" max="140" width="15.21875" customWidth="1"/>
     <col min="141" max="141" width="13" customWidth="1"/>
-    <col min="142" max="142" width="16.4444444444444" customWidth="1"/>
-    <col min="143" max="143" width="19.7777777777778" customWidth="1"/>
-    <col min="144" max="144" width="23.1111111111111" customWidth="1"/>
-    <col min="145" max="145" width="27.6666666666667" customWidth="1"/>
-    <col min="146" max="146" width="18.6666666666667" customWidth="1"/>
-    <col min="147" max="147" width="15.2222222222222" customWidth="1"/>
+    <col min="142" max="142" width="16.44140625" customWidth="1"/>
+    <col min="143" max="143" width="19.77734375" customWidth="1"/>
+    <col min="144" max="144" width="23.109375" customWidth="1"/>
+    <col min="145" max="145" width="27.6640625" customWidth="1"/>
+    <col min="146" max="146" width="18.6640625" customWidth="1"/>
+    <col min="147" max="147" width="15.21875" customWidth="1"/>
     <col min="148" max="148" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:148">
+    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -13960,7 +13277,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:148">
+    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>152</v>
       </c>
@@ -14370,7 +13687,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:148">
+    <row r="3" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>179</v>
       </c>
@@ -14787,914 +14104,914 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:CH3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CH5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
-    <col min="2" max="3" width="14.1111111111111" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="14.1111111111111" customWidth="1"/>
-    <col min="6" max="6" width="11.8888888888889" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="8.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="20.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.4444444444444" customWidth="1"/>
-    <col min="14" max="14" width="10.7777777777778" customWidth="1"/>
-    <col min="15" max="15" width="11.8888888888889" customWidth="1"/>
-    <col min="16" max="17" width="15.2222222222222" customWidth="1"/>
-    <col min="18" max="18" width="14.1111111111111" customWidth="1"/>
-    <col min="19" max="19" width="17.5555555555556" customWidth="1"/>
-    <col min="20" max="20" width="14.1111111111111" customWidth="1"/>
-    <col min="21" max="21" width="16.4444444444444" customWidth="1"/>
-    <col min="22" max="22" width="11.8888888888889" customWidth="1"/>
-    <col min="23" max="23" width="8.66666666666667" customWidth="1"/>
-    <col min="24" max="24" width="10.7777777777778" customWidth="1"/>
-    <col min="25" max="25" width="7.66666666666667" customWidth="1"/>
-    <col min="26" max="26" width="17.5555555555556" customWidth="1"/>
-    <col min="27" max="27" width="9.66666666666667" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" customWidth="1"/>
+    <col min="16" max="17" width="15.21875" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" customWidth="1"/>
+    <col min="19" max="19" width="17.5546875" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" customWidth="1"/>
+    <col min="21" max="21" width="16.44140625" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" customWidth="1"/>
+    <col min="24" max="24" width="10.77734375" customWidth="1"/>
+    <col min="25" max="25" width="7.6640625" customWidth="1"/>
+    <col min="26" max="26" width="17.5546875" customWidth="1"/>
+    <col min="27" max="27" width="9.6640625" customWidth="1"/>
     <col min="28" max="29" width="13" customWidth="1"/>
-    <col min="30" max="30" width="11.8888888888889" customWidth="1"/>
-    <col min="31" max="31" width="15.2222222222222" customWidth="1"/>
-    <col min="32" max="32" width="10.7777777777778" customWidth="1"/>
-    <col min="33" max="33" width="16.4444444444444" customWidth="1"/>
-    <col min="34" max="34" width="15.2222222222222" customWidth="1"/>
+    <col min="30" max="30" width="11.88671875" customWidth="1"/>
+    <col min="31" max="31" width="15.21875" customWidth="1"/>
+    <col min="32" max="32" width="10.77734375" customWidth="1"/>
+    <col min="33" max="33" width="16.44140625" customWidth="1"/>
+    <col min="34" max="34" width="15.21875" customWidth="1"/>
     <col min="35" max="35" width="22" customWidth="1"/>
-    <col min="36" max="36" width="11.8888888888889" customWidth="1"/>
-    <col min="37" max="37" width="20.8888888888889" customWidth="1"/>
-    <col min="38" max="38" width="24.2222222222222" customWidth="1"/>
-    <col min="39" max="39" width="23.1111111111111" customWidth="1"/>
+    <col min="36" max="36" width="11.88671875" customWidth="1"/>
+    <col min="37" max="37" width="20.88671875" customWidth="1"/>
+    <col min="38" max="38" width="24.21875" customWidth="1"/>
+    <col min="39" max="39" width="23.109375" customWidth="1"/>
     <col min="40" max="41" width="13" customWidth="1"/>
-    <col min="42" max="42" width="14.1111111111111" customWidth="1"/>
+    <col min="42" max="42" width="14.109375" customWidth="1"/>
     <col min="43" max="43" width="13" customWidth="1"/>
-    <col min="44" max="45" width="14.1111111111111" customWidth="1"/>
-    <col min="46" max="47" width="15.2222222222222" customWidth="1"/>
+    <col min="44" max="45" width="14.109375" customWidth="1"/>
+    <col min="46" max="47" width="15.21875" customWidth="1"/>
     <col min="48" max="49" width="13" customWidth="1"/>
-    <col min="50" max="50" width="14.1111111111111" customWidth="1"/>
-    <col min="51" max="51" width="16.4444444444444" customWidth="1"/>
-    <col min="52" max="52" width="23.1111111111111" customWidth="1"/>
-    <col min="53" max="53" width="19.7777777777778" customWidth="1"/>
-    <col min="54" max="54" width="23.1111111111111" customWidth="1"/>
-    <col min="55" max="55" width="15.2222222222222" customWidth="1"/>
-    <col min="56" max="56" width="18.6666666666667" customWidth="1"/>
-    <col min="57" max="57" width="17.5555555555556" customWidth="1"/>
-    <col min="58" max="59" width="16.4444444444444" customWidth="1"/>
-    <col min="60" max="61" width="17.5555555555556" customWidth="1"/>
-    <col min="62" max="62" width="16.4444444444444" customWidth="1"/>
-    <col min="63" max="63" width="17.5555555555556" customWidth="1"/>
-    <col min="64" max="64" width="18.6666666666667" customWidth="1"/>
-    <col min="65" max="65" width="25.4444444444444" customWidth="1"/>
-    <col min="66" max="66" width="27.6666666666667" customWidth="1"/>
-    <col min="67" max="67" width="20.8888888888889" customWidth="1"/>
-    <col min="68" max="68" width="16.4444444444444" customWidth="1"/>
-    <col min="69" max="69" width="23.1111111111111" customWidth="1"/>
-    <col min="70" max="70" width="9.66666666666667" customWidth="1"/>
-    <col min="71" max="71" width="23.1111111111111" customWidth="1"/>
-    <col min="72" max="72" width="18.6666666666667" customWidth="1"/>
-    <col min="73" max="73" width="24.2222222222222" customWidth="1"/>
-    <col min="74" max="74" width="19.7777777777778" customWidth="1"/>
-    <col min="75" max="75" width="14.1111111111111" customWidth="1"/>
-    <col min="76" max="76" width="17.5555555555556" customWidth="1"/>
-    <col min="77" max="77" width="15.2222222222222" customWidth="1"/>
-    <col min="78" max="78" width="16.4444444444444" customWidth="1"/>
-    <col min="79" max="79" width="18.6666666666667" customWidth="1"/>
-    <col min="80" max="80" width="19.7777777777778" customWidth="1"/>
-    <col min="81" max="81" width="26.5555555555556" customWidth="1"/>
-    <col min="82" max="82" width="14.1111111111111" customWidth="1"/>
+    <col min="50" max="50" width="14.109375" customWidth="1"/>
+    <col min="51" max="51" width="16.44140625" customWidth="1"/>
+    <col min="52" max="52" width="23.109375" customWidth="1"/>
+    <col min="53" max="53" width="19.77734375" customWidth="1"/>
+    <col min="54" max="54" width="23.109375" customWidth="1"/>
+    <col min="55" max="55" width="15.21875" customWidth="1"/>
+    <col min="56" max="56" width="18.6640625" customWidth="1"/>
+    <col min="57" max="57" width="17.5546875" customWidth="1"/>
+    <col min="58" max="59" width="16.44140625" customWidth="1"/>
+    <col min="60" max="61" width="17.5546875" customWidth="1"/>
+    <col min="62" max="62" width="16.44140625" customWidth="1"/>
+    <col min="63" max="63" width="17.5546875" customWidth="1"/>
+    <col min="64" max="64" width="18.6640625" customWidth="1"/>
+    <col min="65" max="65" width="25.44140625" customWidth="1"/>
+    <col min="66" max="66" width="27.6640625" customWidth="1"/>
+    <col min="67" max="67" width="20.88671875" customWidth="1"/>
+    <col min="68" max="68" width="16.44140625" customWidth="1"/>
+    <col min="69" max="69" width="23.109375" customWidth="1"/>
+    <col min="70" max="70" width="9.6640625" customWidth="1"/>
+    <col min="71" max="71" width="23.109375" customWidth="1"/>
+    <col min="72" max="72" width="18.6640625" customWidth="1"/>
+    <col min="73" max="73" width="24.21875" customWidth="1"/>
+    <col min="74" max="74" width="19.77734375" customWidth="1"/>
+    <col min="75" max="75" width="14.109375" customWidth="1"/>
+    <col min="76" max="76" width="17.5546875" customWidth="1"/>
+    <col min="77" max="77" width="15.21875" customWidth="1"/>
+    <col min="78" max="78" width="16.44140625" customWidth="1"/>
+    <col min="79" max="79" width="18.6640625" customWidth="1"/>
+    <col min="80" max="80" width="19.77734375" customWidth="1"/>
+    <col min="81" max="81" width="26.5546875" customWidth="1"/>
+    <col min="82" max="82" width="14.109375" customWidth="1"/>
     <col min="83" max="83" width="13" customWidth="1"/>
     <col min="84" max="84" width="22" customWidth="1"/>
-    <col min="85" max="85" width="17.5555555555556" customWidth="1"/>
-    <col min="86" max="86" width="20.8888888888889" customWidth="1"/>
+    <col min="85" max="85" width="17.5546875" customWidth="1"/>
+    <col min="86" max="86" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:86">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:86" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AS1" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BW1" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BX1" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BZ1" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CA1" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CB1" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CC1" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CD1" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CE1" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CF1" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CG1" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CH1" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:86">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:86" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="I2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="K2" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="O2" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="V2" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AU2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AZ2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BA2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BC2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BE2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BF2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BI2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BJ2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BK2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BL2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BM2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BN2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BO2" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BP2" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="BQ2" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR2" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="BS2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BU2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BV2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BW2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BX2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BZ2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="CA2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="CB2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="CD2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="CE2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="CG2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="CH2" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:86" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AA3" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AJ3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AM3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="AP3" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="AQ2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR2" s="1" t="s">
+      <c r="AQ3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AR3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AT3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AU3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AZ3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BA3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BC3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BE3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BF3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BI3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BJ3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BK3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BL3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BM3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BN3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BO3" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="BP3" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="BQ3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BR3" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="BS2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CC2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CF2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CH2" s="1" t="s">
+      <c r="BS3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BT3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BU3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BV3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BW3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BX3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BY3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BZ3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="CA3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="CB3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="CD3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="CE3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="CF3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="CG3" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="CH3" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:86">
-      <c r="A3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CC3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CF3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CG3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
+    <row r="4" spans="1:86" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:86" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" customWidth="1"/>
-    <col min="2" max="3" width="14.1111111111111" customWidth="1"/>
-    <col min="4" max="5" width="11.8888888888889" customWidth="1"/>
-    <col min="6" max="7" width="7.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="14.1111111111111" customWidth="1"/>
-    <col min="10" max="10" width="11.8888888888889" customWidth="1"/>
-    <col min="11" max="11" width="10.7777777777778" customWidth="1"/>
-    <col min="12" max="12" width="15.2222222222222" customWidth="1"/>
-    <col min="13" max="13" width="10.7777777777778" customWidth="1"/>
-    <col min="14" max="14" width="11.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>196</v>
       </c>
@@ -15738,7 +15055,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>151</v>
       </c>
@@ -15782,7 +15099,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:14">
+    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>151</v>
       </c>
@@ -15827,151 +15144,150 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI5"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
-    <col min="4" max="5" width="16.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="7.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="7.66666666666667" customWidth="1"/>
-    <col min="10" max="11" width="14.1111111111111" customWidth="1"/>
-    <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="11.8888888888889" customWidth="1"/>
-    <col min="14" max="14" width="7.66666666666667" customWidth="1"/>
-    <col min="15" max="16" width="8.66666666666667" customWidth="1"/>
-    <col min="17" max="17" width="10.7777777777778" customWidth="1"/>
-    <col min="18" max="18" width="8.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="7.66666666666667" customWidth="1"/>
-    <col min="21" max="21" width="10.7777777777778" customWidth="1"/>
-    <col min="22" max="22" width="9.66666666666667" customWidth="1"/>
-    <col min="23" max="23" width="11.8888888888889" customWidth="1"/>
-    <col min="24" max="24" width="16.4444444444444" customWidth="1"/>
-    <col min="25" max="25" width="14.1111111111111" customWidth="1"/>
-    <col min="26" max="26" width="9.66666666666667" customWidth="1"/>
-    <col min="27" max="27" width="16.4444444444444" customWidth="1"/>
-    <col min="28" max="28" width="8.66666666666667" customWidth="1"/>
-    <col min="29" max="29" width="9.66666666666667" customWidth="1"/>
-    <col min="30" max="30" width="23.1111111111111" customWidth="1"/>
-    <col min="31" max="31" width="10.7777777777778" customWidth="1"/>
-    <col min="32" max="32" width="15.2222222222222" customWidth="1"/>
-    <col min="33" max="34" width="14.1111111111111" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="16" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" customWidth="1"/>
+    <col min="24" max="24" width="16.44140625" customWidth="1"/>
+    <col min="25" max="25" width="14.109375" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" customWidth="1"/>
+    <col min="27" max="27" width="16.44140625" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" customWidth="1"/>
+    <col min="30" max="30" width="23.109375" customWidth="1"/>
+    <col min="31" max="31" width="10.77734375" customWidth="1"/>
+    <col min="32" max="32" width="15.21875" customWidth="1"/>
+    <col min="33" max="34" width="14.109375" customWidth="1"/>
     <col min="35" max="36" width="13" customWidth="1"/>
-    <col min="37" max="37" width="9.66666666666667" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="10.7777777777778" customWidth="1"/>
-    <col min="40" max="40" width="14.1111111111111" customWidth="1"/>
-    <col min="41" max="41" width="11.8888888888889" customWidth="1"/>
-    <col min="42" max="43" width="9.66666666666667" customWidth="1"/>
-    <col min="44" max="45" width="14.1111111111111" customWidth="1"/>
-    <col min="46" max="46" width="9.66666666666667" customWidth="1"/>
+    <col min="39" max="39" width="10.77734375" customWidth="1"/>
+    <col min="40" max="40" width="14.109375" customWidth="1"/>
+    <col min="41" max="41" width="11.88671875" customWidth="1"/>
+    <col min="42" max="43" width="9.6640625" customWidth="1"/>
+    <col min="44" max="45" width="14.109375" customWidth="1"/>
+    <col min="46" max="46" width="9.6640625" customWidth="1"/>
     <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="48" width="14.1111111111111" customWidth="1"/>
-    <col min="49" max="49" width="8.66666666666667" customWidth="1"/>
-    <col min="50" max="50" width="17.5555555555556" customWidth="1"/>
-    <col min="51" max="51" width="11.8888888888889" customWidth="1"/>
-    <col min="52" max="52" width="8.66666666666667" customWidth="1"/>
-    <col min="53" max="53" width="9.66666666666667" customWidth="1"/>
+    <col min="48" max="48" width="14.109375" customWidth="1"/>
+    <col min="49" max="49" width="8.6640625" customWidth="1"/>
+    <col min="50" max="50" width="17.5546875" customWidth="1"/>
+    <col min="51" max="51" width="11.88671875" customWidth="1"/>
+    <col min="52" max="52" width="8.6640625" customWidth="1"/>
+    <col min="53" max="53" width="9.6640625" customWidth="1"/>
     <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="16.4444444444444" customWidth="1"/>
+    <col min="55" max="55" width="16.44140625" customWidth="1"/>
     <col min="56" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="16.4444444444444" customWidth="1"/>
-    <col min="59" max="59" width="15.2222222222222" customWidth="1"/>
-    <col min="60" max="61" width="17.5555555555556" customWidth="1"/>
-    <col min="62" max="62" width="14.1111111111111" customWidth="1"/>
-    <col min="63" max="63" width="11.8888888888889" customWidth="1"/>
-    <col min="64" max="64" width="8.66666666666667" customWidth="1"/>
-    <col min="65" max="65" width="14.1111111111111" customWidth="1"/>
-    <col min="66" max="66" width="9.66666666666667" customWidth="1"/>
-    <col min="67" max="67" width="17.5555555555556" customWidth="1"/>
-    <col min="68" max="68" width="10.7777777777778" customWidth="1"/>
-    <col min="69" max="69" width="11.8888888888889" customWidth="1"/>
+    <col min="58" max="58" width="16.44140625" customWidth="1"/>
+    <col min="59" max="59" width="15.21875" customWidth="1"/>
+    <col min="60" max="61" width="17.5546875" customWidth="1"/>
+    <col min="62" max="62" width="14.109375" customWidth="1"/>
+    <col min="63" max="63" width="11.88671875" customWidth="1"/>
+    <col min="64" max="64" width="8.6640625" customWidth="1"/>
+    <col min="65" max="65" width="14.109375" customWidth="1"/>
+    <col min="66" max="66" width="9.6640625" customWidth="1"/>
+    <col min="67" max="67" width="17.5546875" customWidth="1"/>
+    <col min="68" max="68" width="10.77734375" customWidth="1"/>
+    <col min="69" max="69" width="11.88671875" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.8888888888889" customWidth="1"/>
-    <col min="72" max="72" width="15.2222222222222" customWidth="1"/>
-    <col min="73" max="73" width="11.8888888888889" customWidth="1"/>
+    <col min="71" max="71" width="11.88671875" customWidth="1"/>
+    <col min="72" max="72" width="15.21875" customWidth="1"/>
+    <col min="73" max="73" width="11.88671875" customWidth="1"/>
     <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="17.5555555555556" customWidth="1"/>
-    <col min="76" max="76" width="20.8888888888889" customWidth="1"/>
-    <col min="77" max="77" width="16.4444444444444" customWidth="1"/>
+    <col min="75" max="75" width="17.5546875" customWidth="1"/>
+    <col min="76" max="76" width="20.88671875" customWidth="1"/>
+    <col min="77" max="77" width="16.44140625" customWidth="1"/>
     <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="11.8888888888889" customWidth="1"/>
-    <col min="80" max="80" width="10.7777777777778" customWidth="1"/>
-    <col min="81" max="81" width="11.8888888888889" customWidth="1"/>
-    <col min="82" max="82" width="9.66666666666667" customWidth="1"/>
-    <col min="83" max="83" width="7.66666666666667" customWidth="1"/>
-    <col min="84" max="85" width="17.5555555555556" customWidth="1"/>
-    <col min="86" max="86" width="16.4444444444444" customWidth="1"/>
-    <col min="87" max="87" width="11.8888888888889" customWidth="1"/>
-    <col min="88" max="88" width="14.1111111111111" customWidth="1"/>
-    <col min="89" max="89" width="16.4444444444444" customWidth="1"/>
-    <col min="90" max="90" width="10.7777777777778" customWidth="1"/>
-    <col min="91" max="91" width="11.8888888888889" customWidth="1"/>
-    <col min="92" max="92" width="19.7777777777778" customWidth="1"/>
-    <col min="93" max="93" width="16.4444444444444" customWidth="1"/>
-    <col min="94" max="94" width="23.1111111111111" customWidth="1"/>
-    <col min="95" max="95" width="7.66666666666667" customWidth="1"/>
-    <col min="96" max="96" width="18.6666666666667" customWidth="1"/>
-    <col min="97" max="97" width="10.7777777777778" customWidth="1"/>
-    <col min="98" max="98" width="14.1111111111111" customWidth="1"/>
+    <col min="79" max="79" width="11.88671875" customWidth="1"/>
+    <col min="80" max="80" width="10.77734375" customWidth="1"/>
+    <col min="81" max="81" width="11.88671875" customWidth="1"/>
+    <col min="82" max="82" width="9.6640625" customWidth="1"/>
+    <col min="83" max="83" width="7.6640625" customWidth="1"/>
+    <col min="84" max="85" width="17.5546875" customWidth="1"/>
+    <col min="86" max="86" width="16.44140625" customWidth="1"/>
+    <col min="87" max="87" width="11.88671875" customWidth="1"/>
+    <col min="88" max="88" width="14.109375" customWidth="1"/>
+    <col min="89" max="89" width="16.44140625" customWidth="1"/>
+    <col min="90" max="90" width="10.77734375" customWidth="1"/>
+    <col min="91" max="91" width="11.88671875" customWidth="1"/>
+    <col min="92" max="92" width="19.77734375" customWidth="1"/>
+    <col min="93" max="93" width="16.44140625" customWidth="1"/>
+    <col min="94" max="94" width="23.109375" customWidth="1"/>
+    <col min="95" max="95" width="7.6640625" customWidth="1"/>
+    <col min="96" max="96" width="18.6640625" customWidth="1"/>
+    <col min="97" max="97" width="10.77734375" customWidth="1"/>
+    <col min="98" max="98" width="14.109375" customWidth="1"/>
     <col min="99" max="99" width="13" customWidth="1"/>
-    <col min="100" max="100" width="16.4444444444444" customWidth="1"/>
+    <col min="100" max="100" width="16.44140625" customWidth="1"/>
     <col min="101" max="102" width="13" customWidth="1"/>
-    <col min="103" max="103" width="9.66666666666667" customWidth="1"/>
-    <col min="104" max="104" width="16.4444444444444" customWidth="1"/>
-    <col min="105" max="105" width="14.1111111111111" customWidth="1"/>
-    <col min="106" max="106" width="11.8888888888889" customWidth="1"/>
-    <col min="107" max="108" width="15.2222222222222" customWidth="1"/>
-    <col min="109" max="109" width="9.66666666666667" customWidth="1"/>
+    <col min="103" max="103" width="9.6640625" customWidth="1"/>
+    <col min="104" max="104" width="16.44140625" customWidth="1"/>
+    <col min="105" max="105" width="14.109375" customWidth="1"/>
+    <col min="106" max="106" width="11.88671875" customWidth="1"/>
+    <col min="107" max="108" width="15.21875" customWidth="1"/>
+    <col min="109" max="109" width="9.6640625" customWidth="1"/>
     <col min="110" max="110" width="13" customWidth="1"/>
-    <col min="111" max="111" width="9.66666666666667" customWidth="1"/>
-    <col min="112" max="112" width="15.2222222222222" customWidth="1"/>
-    <col min="113" max="113" width="17.5555555555556" customWidth="1"/>
-    <col min="114" max="114" width="9.66666666666667" customWidth="1"/>
-    <col min="115" max="115" width="19.7777777777778" customWidth="1"/>
-    <col min="116" max="116" width="16.4444444444444" customWidth="1"/>
-    <col min="117" max="117" width="20.8888888888889" customWidth="1"/>
-    <col min="118" max="118" width="24.2222222222222" customWidth="1"/>
-    <col min="119" max="119" width="16.4444444444444" customWidth="1"/>
-    <col min="120" max="120" width="17.5555555555556" customWidth="1"/>
+    <col min="111" max="111" width="9.6640625" customWidth="1"/>
+    <col min="112" max="112" width="15.21875" customWidth="1"/>
+    <col min="113" max="113" width="17.5546875" customWidth="1"/>
+    <col min="114" max="114" width="9.6640625" customWidth="1"/>
+    <col min="115" max="115" width="19.77734375" customWidth="1"/>
+    <col min="116" max="116" width="16.44140625" customWidth="1"/>
+    <col min="117" max="117" width="20.88671875" customWidth="1"/>
+    <col min="118" max="118" width="24.21875" customWidth="1"/>
+    <col min="119" max="119" width="16.44140625" customWidth="1"/>
+    <col min="120" max="120" width="17.5546875" customWidth="1"/>
     <col min="121" max="121" width="22" customWidth="1"/>
-    <col min="122" max="123" width="20.8888888888889" customWidth="1"/>
-    <col min="124" max="124" width="19.7777777777778" customWidth="1"/>
-    <col min="125" max="125" width="17.5555555555556" customWidth="1"/>
-    <col min="126" max="126" width="20.8888888888889" customWidth="1"/>
-    <col min="127" max="127" width="18.6666666666667" customWidth="1"/>
-    <col min="128" max="128" width="10.7777777777778" customWidth="1"/>
-    <col min="129" max="129" width="15.2222222222222" customWidth="1"/>
+    <col min="122" max="123" width="20.88671875" customWidth="1"/>
+    <col min="124" max="124" width="19.77734375" customWidth="1"/>
+    <col min="125" max="125" width="17.5546875" customWidth="1"/>
+    <col min="126" max="126" width="20.88671875" customWidth="1"/>
+    <col min="127" max="127" width="18.6640625" customWidth="1"/>
+    <col min="128" max="128" width="10.77734375" customWidth="1"/>
+    <col min="129" max="129" width="15.21875" customWidth="1"/>
     <col min="130" max="130" width="13" customWidth="1"/>
-    <col min="131" max="131" width="14.1111111111111" customWidth="1"/>
-    <col min="132" max="132" width="10.7777777777778" customWidth="1"/>
-    <col min="133" max="133" width="11.8888888888889" customWidth="1"/>
-    <col min="134" max="134" width="15.2222222222222" customWidth="1"/>
-    <col min="135" max="135" width="16.4444444444444" customWidth="1"/>
-    <col min="136" max="136" width="14.1111111111111" customWidth="1"/>
-    <col min="137" max="137" width="17.5555555555556" customWidth="1"/>
-    <col min="138" max="138" width="14.1111111111111" customWidth="1"/>
-    <col min="139" max="139" width="10.7777777777778" customWidth="1"/>
+    <col min="131" max="131" width="14.109375" customWidth="1"/>
+    <col min="132" max="132" width="10.77734375" customWidth="1"/>
+    <col min="133" max="133" width="11.88671875" customWidth="1"/>
+    <col min="134" max="134" width="15.21875" customWidth="1"/>
+    <col min="135" max="135" width="16.44140625" customWidth="1"/>
+    <col min="136" max="136" width="14.109375" customWidth="1"/>
+    <col min="137" max="137" width="17.5546875" customWidth="1"/>
+    <col min="138" max="138" width="14.109375" customWidth="1"/>
+    <col min="139" max="139" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:139">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>296</v>
       </c>
@@ -16390,7 +15706,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:139">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>435</v>
       </c>
@@ -16725,7 +16041,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:139">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>441</v>
       </c>
@@ -17054,7 +16370,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:139">
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>444</v>
       </c>
@@ -17389,7 +16705,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:139">
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>448</v>
       </c>
@@ -17719,86 +17035,85 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
+    <col min="1" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="9.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="7.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.66666666666667" customWidth="1"/>
-    <col min="12" max="13" width="11.8888888888889" customWidth="1"/>
-    <col min="14" max="15" width="10.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="15" width="10.77734375" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.7777777777778" customWidth="1"/>
-    <col min="20" max="20" width="14.1111111111111" customWidth="1"/>
-    <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
-    <col min="22" max="23" width="11.8888888888889" customWidth="1"/>
-    <col min="24" max="24" width="10.7777777777778" customWidth="1"/>
-    <col min="25" max="25" width="11.8888888888889" customWidth="1"/>
-    <col min="26" max="27" width="9.66666666666667" customWidth="1"/>
+    <col min="19" max="19" width="10.77734375" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" customWidth="1"/>
+    <col min="22" max="23" width="11.88671875" customWidth="1"/>
+    <col min="24" max="24" width="10.77734375" customWidth="1"/>
+    <col min="25" max="25" width="11.88671875" customWidth="1"/>
+    <col min="26" max="27" width="9.6640625" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="8.66666666666667" customWidth="1"/>
-    <col min="30" max="30" width="11.8888888888889" customWidth="1"/>
-    <col min="31" max="31" width="14.1111111111111" customWidth="1"/>
-    <col min="32" max="32" width="7.66666666666667" customWidth="1"/>
-    <col min="33" max="33" width="9.66666666666667" customWidth="1"/>
+    <col min="29" max="29" width="8.6640625" customWidth="1"/>
+    <col min="30" max="30" width="11.88671875" customWidth="1"/>
+    <col min="31" max="31" width="14.109375" customWidth="1"/>
+    <col min="32" max="32" width="7.6640625" customWidth="1"/>
+    <col min="33" max="33" width="9.6640625" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="14.1111111111111" customWidth="1"/>
-    <col min="36" max="36" width="10.7777777777778" customWidth="1"/>
-    <col min="37" max="37" width="11.8888888888889" customWidth="1"/>
-    <col min="38" max="39" width="10.7777777777778" customWidth="1"/>
-    <col min="40" max="40" width="11.8888888888889" customWidth="1"/>
-    <col min="41" max="41" width="16.4444444444444" customWidth="1"/>
-    <col min="42" max="43" width="11.8888888888889" customWidth="1"/>
-    <col min="44" max="44" width="14.1111111111111" customWidth="1"/>
-    <col min="45" max="45" width="16.4444444444444" customWidth="1"/>
-    <col min="46" max="46" width="14.1111111111111" customWidth="1"/>
-    <col min="47" max="47" width="16.4444444444444" customWidth="1"/>
-    <col min="48" max="48" width="11.8888888888889" customWidth="1"/>
-    <col min="49" max="49" width="5.66666666666667" customWidth="1"/>
-    <col min="50" max="50" width="6.66666666666667" customWidth="1"/>
-    <col min="51" max="51" width="14.1111111111111" customWidth="1"/>
-    <col min="52" max="52" width="9.66666666666667" customWidth="1"/>
-    <col min="53" max="53" width="10.7777777777778" customWidth="1"/>
-    <col min="54" max="54" width="15.2222222222222" customWidth="1"/>
-    <col min="55" max="55" width="14.1111111111111" customWidth="1"/>
-    <col min="56" max="56" width="20.8888888888889" customWidth="1"/>
+    <col min="35" max="35" width="14.109375" customWidth="1"/>
+    <col min="36" max="36" width="10.77734375" customWidth="1"/>
+    <col min="37" max="37" width="11.88671875" customWidth="1"/>
+    <col min="38" max="39" width="10.77734375" customWidth="1"/>
+    <col min="40" max="40" width="11.88671875" customWidth="1"/>
+    <col min="41" max="41" width="16.44140625" customWidth="1"/>
+    <col min="42" max="43" width="11.88671875" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="45" width="16.44140625" customWidth="1"/>
+    <col min="46" max="46" width="14.109375" customWidth="1"/>
+    <col min="47" max="47" width="16.44140625" customWidth="1"/>
+    <col min="48" max="48" width="11.88671875" customWidth="1"/>
+    <col min="49" max="49" width="5.6640625" customWidth="1"/>
+    <col min="50" max="50" width="6.6640625" customWidth="1"/>
+    <col min="51" max="51" width="14.109375" customWidth="1"/>
+    <col min="52" max="52" width="9.6640625" customWidth="1"/>
+    <col min="53" max="53" width="10.77734375" customWidth="1"/>
+    <col min="54" max="54" width="15.21875" customWidth="1"/>
+    <col min="55" max="55" width="14.109375" customWidth="1"/>
+    <col min="56" max="56" width="20.88671875" customWidth="1"/>
     <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="14.1111111111111" customWidth="1"/>
-    <col min="59" max="59" width="15.2222222222222" customWidth="1"/>
-    <col min="60" max="60" width="10.7777777777778" customWidth="1"/>
-    <col min="61" max="61" width="5.66666666666667" customWidth="1"/>
-    <col min="62" max="62" width="10.7777777777778" customWidth="1"/>
-    <col min="63" max="63" width="16.4444444444444" customWidth="1"/>
-    <col min="64" max="64" width="11.8888888888889" customWidth="1"/>
+    <col min="58" max="58" width="14.109375" customWidth="1"/>
+    <col min="59" max="59" width="15.21875" customWidth="1"/>
+    <col min="60" max="60" width="10.77734375" customWidth="1"/>
+    <col min="61" max="61" width="5.6640625" customWidth="1"/>
+    <col min="62" max="62" width="10.77734375" customWidth="1"/>
+    <col min="63" max="63" width="16.44140625" customWidth="1"/>
+    <col min="64" max="64" width="11.88671875" customWidth="1"/>
     <col min="65" max="65" width="13" customWidth="1"/>
-    <col min="66" max="66" width="10.7777777777778" customWidth="1"/>
-    <col min="67" max="68" width="11.8888888888889" customWidth="1"/>
-    <col min="69" max="69" width="10.7777777777778" customWidth="1"/>
+    <col min="66" max="66" width="10.77734375" customWidth="1"/>
+    <col min="67" max="68" width="11.88671875" customWidth="1"/>
+    <col min="69" max="69" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:69">
+    <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>298</v>
       </c>
@@ -18007,7 +17322,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:69">
+    <row r="2" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>500</v>
       </c>
@@ -18168,7 +17483,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:69">
+    <row r="3" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>500</v>
       </c>
@@ -18330,86 +17645,85 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="7.66666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="8.66666666666667" customWidth="1"/>
+    <col min="1" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="10.7777777777778" customWidth="1"/>
-    <col min="9" max="9" width="9.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="7.66666666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.66666666666667" customWidth="1"/>
-    <col min="12" max="13" width="11.8888888888889" customWidth="1"/>
-    <col min="14" max="15" width="10.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="15" width="10.77734375" customWidth="1"/>
     <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="16.4444444444444" customWidth="1"/>
+    <col min="17" max="17" width="16.44140625" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.7777777777778" customWidth="1"/>
-    <col min="20" max="20" width="14.1111111111111" customWidth="1"/>
-    <col min="21" max="21" width="7.66666666666667" customWidth="1"/>
-    <col min="22" max="23" width="11.8888888888889" customWidth="1"/>
-    <col min="24" max="24" width="10.7777777777778" customWidth="1"/>
-    <col min="25" max="25" width="11.8888888888889" customWidth="1"/>
-    <col min="26" max="27" width="9.66666666666667" customWidth="1"/>
+    <col min="19" max="19" width="10.77734375" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" customWidth="1"/>
+    <col min="21" max="21" width="7.6640625" customWidth="1"/>
+    <col min="22" max="23" width="11.88671875" customWidth="1"/>
+    <col min="24" max="24" width="10.77734375" customWidth="1"/>
+    <col min="25" max="25" width="11.88671875" customWidth="1"/>
+    <col min="26" max="27" width="9.6640625" customWidth="1"/>
     <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="8.66666666666667" customWidth="1"/>
-    <col min="30" max="30" width="11.8888888888889" customWidth="1"/>
-    <col min="31" max="31" width="14.1111111111111" customWidth="1"/>
-    <col min="32" max="32" width="7.66666666666667" customWidth="1"/>
-    <col min="33" max="33" width="9.66666666666667" customWidth="1"/>
+    <col min="29" max="29" width="8.6640625" customWidth="1"/>
+    <col min="30" max="30" width="11.88671875" customWidth="1"/>
+    <col min="31" max="31" width="14.109375" customWidth="1"/>
+    <col min="32" max="32" width="7.6640625" customWidth="1"/>
+    <col min="33" max="33" width="9.6640625" customWidth="1"/>
     <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="14.1111111111111" customWidth="1"/>
-    <col min="36" max="36" width="10.7777777777778" customWidth="1"/>
-    <col min="37" max="37" width="11.8888888888889" customWidth="1"/>
-    <col min="38" max="39" width="10.7777777777778" customWidth="1"/>
-    <col min="40" max="40" width="11.8888888888889" customWidth="1"/>
-    <col min="41" max="41" width="16.4444444444444" customWidth="1"/>
-    <col min="42" max="43" width="11.8888888888889" customWidth="1"/>
-    <col min="44" max="44" width="14.1111111111111" customWidth="1"/>
-    <col min="45" max="45" width="16.4444444444444" customWidth="1"/>
-    <col min="46" max="46" width="14.1111111111111" customWidth="1"/>
-    <col min="47" max="47" width="16.4444444444444" customWidth="1"/>
-    <col min="48" max="48" width="11.8888888888889" customWidth="1"/>
-    <col min="49" max="49" width="5.66666666666667" customWidth="1"/>
-    <col min="50" max="50" width="6.66666666666667" customWidth="1"/>
-    <col min="51" max="51" width="14.1111111111111" customWidth="1"/>
-    <col min="52" max="52" width="9.66666666666667" customWidth="1"/>
-    <col min="53" max="53" width="10.7777777777778" customWidth="1"/>
-    <col min="54" max="54" width="15.2222222222222" customWidth="1"/>
-    <col min="55" max="55" width="14.1111111111111" customWidth="1"/>
-    <col min="56" max="56" width="20.8888888888889" customWidth="1"/>
+    <col min="35" max="35" width="14.109375" customWidth="1"/>
+    <col min="36" max="36" width="10.77734375" customWidth="1"/>
+    <col min="37" max="37" width="11.88671875" customWidth="1"/>
+    <col min="38" max="39" width="10.77734375" customWidth="1"/>
+    <col min="40" max="40" width="11.88671875" customWidth="1"/>
+    <col min="41" max="41" width="16.44140625" customWidth="1"/>
+    <col min="42" max="43" width="11.88671875" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="45" width="16.44140625" customWidth="1"/>
+    <col min="46" max="46" width="14.109375" customWidth="1"/>
+    <col min="47" max="47" width="16.44140625" customWidth="1"/>
+    <col min="48" max="48" width="11.88671875" customWidth="1"/>
+    <col min="49" max="49" width="5.6640625" customWidth="1"/>
+    <col min="50" max="50" width="6.6640625" customWidth="1"/>
+    <col min="51" max="51" width="14.109375" customWidth="1"/>
+    <col min="52" max="52" width="9.6640625" customWidth="1"/>
+    <col min="53" max="53" width="10.77734375" customWidth="1"/>
+    <col min="54" max="54" width="15.21875" customWidth="1"/>
+    <col min="55" max="55" width="14.109375" customWidth="1"/>
+    <col min="56" max="56" width="20.88671875" customWidth="1"/>
     <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="14.1111111111111" customWidth="1"/>
-    <col min="59" max="59" width="15.2222222222222" customWidth="1"/>
-    <col min="60" max="60" width="10.7777777777778" customWidth="1"/>
-    <col min="61" max="61" width="5.66666666666667" customWidth="1"/>
-    <col min="62" max="62" width="10.7777777777778" customWidth="1"/>
-    <col min="63" max="63" width="16.4444444444444" customWidth="1"/>
-    <col min="64" max="64" width="11.8888888888889" customWidth="1"/>
+    <col min="58" max="58" width="14.109375" customWidth="1"/>
+    <col min="59" max="59" width="15.21875" customWidth="1"/>
+    <col min="60" max="60" width="10.77734375" customWidth="1"/>
+    <col min="61" max="61" width="5.6640625" customWidth="1"/>
+    <col min="62" max="62" width="10.77734375" customWidth="1"/>
+    <col min="63" max="63" width="16.44140625" customWidth="1"/>
+    <col min="64" max="64" width="11.88671875" customWidth="1"/>
     <col min="65" max="65" width="13" customWidth="1"/>
-    <col min="66" max="66" width="10.7777777777778" customWidth="1"/>
-    <col min="67" max="68" width="11.8888888888889" customWidth="1"/>
-    <col min="69" max="69" width="10.7777777777778" customWidth="1"/>
+    <col min="66" max="66" width="10.77734375" customWidth="1"/>
+    <col min="67" max="68" width="11.88671875" customWidth="1"/>
+    <col min="69" max="69" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:69">
+    <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>298</v>
       </c>
@@ -18618,7 +17932,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:69">
+    <row r="2" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>500</v>
       </c>
@@ -18779,7 +18093,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:69">
+    <row r="3" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>500</v>
       </c>
@@ -18941,7 +18255,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/用例数据/深A/GDR数据/限售股/测试结果.xlsx
+++ b/用例数据/深A/GDR数据/限售股/测试结果.xlsx
@@ -1,31 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\深A\GDR数据\限售股\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A93990-B4FD-4354-ADF7-6D36413BDA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21216" windowHeight="9384" tabRatio="734" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="734" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="account" sheetId="2" r:id="rId2"/>
-    <sheet name="stklist" sheetId="3" r:id="rId3"/>
-    <sheet name="stklistextend" sheetId="4" r:id="rId4"/>
-    <sheet name="tradinglog" sheetId="5" r:id="rId5"/>
-    <sheet name="exchangerights" sheetId="6" r:id="rId6"/>
-    <sheet name="virtualRegistrationRights" sheetId="7" r:id="rId7"/>
+    <sheet name="stklist" sheetId="3" r:id="rId2"/>
+    <sheet name="stklistextend" sheetId="4" r:id="rId3"/>
+    <sheet name="tradinglog" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5166" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4408" uniqueCount="539">
   <si>
     <t>account</t>
   </si>
@@ -1611,25 +1609,109 @@
     <t>virtualRegistrationRights</t>
   </si>
   <si>
-    <t>236000.0000</t>
-  </si>
-  <si>
-    <t>2.1600</t>
-  </si>
-  <si>
-    <t>104000</t>
-  </si>
-  <si>
-    <t>0.09076923</t>
-  </si>
-  <si>
-    <t>245440.0000</t>
+    <t>001004</t>
+  </si>
+  <si>
+    <t>主测4DR</t>
+  </si>
+  <si>
+    <t>0.11892157</t>
+  </si>
+  <si>
+    <t>1237260.0000</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>12.0300</t>
+  </si>
+  <si>
+    <t>CHECKITEM</t>
+  </si>
+  <si>
+    <t>FROZENAMT</t>
+  </si>
+  <si>
+    <t>EXTEND</t>
+  </si>
+  <si>
+    <t>CCB1</t>
+  </si>
+  <si>
+    <t>12.13000000</t>
+  </si>
+  <si>
+    <t>99999</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>20230510000000</t>
+  </si>
+  <si>
+    <t>1.0000000000</t>
+  </si>
+  <si>
+    <t>1225130.0000</t>
+  </si>
+  <si>
+    <t>30002516</t>
+  </si>
+  <si>
+    <t>20230510235959</t>
+  </si>
+  <si>
+    <t>20230511093335</t>
+  </si>
+  <si>
+    <t>JD00001009</t>
+  </si>
+  <si>
+    <t>903703195016.400</t>
+  </si>
+  <si>
+    <t>000007325366</t>
+  </si>
+  <si>
+    <t>20230511000000</t>
+  </si>
+  <si>
+    <t>30002517</t>
+  </si>
+  <si>
+    <t>903703193016.400</t>
+  </si>
+  <si>
+    <t>000007325367</t>
+  </si>
+  <si>
+    <t>30002518</t>
+  </si>
+  <si>
+    <t>JD00001010</t>
+  </si>
+  <si>
+    <t>896327357254.070</t>
+  </si>
+  <si>
+    <t>000007325368</t>
+  </si>
+  <si>
+    <t>30002519</t>
+  </si>
+  <si>
+    <t>896327355254.070</t>
+  </si>
+  <si>
+    <t>000007325369</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1758,7 +1840,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1791,9 +1873,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1826,6 +1925,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2001,37 +2117,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ET63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A57" sqref="A57:XFD63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="14.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="19.109375" style="1" customWidth="1"/>
-    <col min="7" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="14.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="1"/>
-    <col min="15" max="15" width="12.21875" style="1" customWidth="1"/>
-    <col min="16" max="25" width="8.88671875" style="1"/>
-    <col min="26" max="26" width="17.6640625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.875" style="1"/>
+    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="1"/>
+    <col min="6" max="6" width="19.125" style="1" customWidth="1"/>
+    <col min="7" max="11" width="8.875" style="1"/>
+    <col min="12" max="12" width="14.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.875" style="1"/>
+    <col min="15" max="15" width="12.25" style="1" customWidth="1"/>
+    <col min="16" max="25" width="8.875" style="1"/>
+    <col min="26" max="26" width="17.625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.625" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:150" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:150" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2480,7 +2596,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>150</v>
       </c>
@@ -2896,7 +3012,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>150</v>
       </c>
@@ -3318,7 +3434,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>189</v>
       </c>
@@ -3734,7 +3850,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>189</v>
       </c>
@@ -4156,7 +4272,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>193</v>
       </c>
@@ -4572,7 +4688,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>194</v>
       </c>
@@ -4994,12 +5110,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:150" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:150" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
@@ -5262,7 +5378,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="12" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>150</v>
       </c>
@@ -5528,7 +5644,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>150</v>
       </c>
@@ -5794,7 +5910,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>189</v>
       </c>
@@ -6060,7 +6176,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>189</v>
       </c>
@@ -6326,7 +6442,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="16" spans="1:150" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:150" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>193</v>
       </c>
@@ -6592,7 +6708,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>194</v>
       </c>
@@ -6858,12 +6974,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:141" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:141" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
@@ -6910,7 +7026,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>150</v>
       </c>
@@ -6960,7 +7076,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>150</v>
       </c>
@@ -7010,7 +7126,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>189</v>
       </c>
@@ -7060,7 +7176,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>189</v>
       </c>
@@ -7110,7 +7226,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>193</v>
       </c>
@@ -7160,7 +7276,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>194</v>
       </c>
@@ -7210,12 +7326,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="31" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:141" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:141" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
@@ -7637,7 +7753,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="33" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>189</v>
       </c>
@@ -7975,7 +8091,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="34" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>189</v>
       </c>
@@ -8313,7 +8429,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="35" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>189</v>
       </c>
@@ -8639,7 +8755,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="36" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>189</v>
       </c>
@@ -8965,7 +9081,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>193</v>
       </c>
@@ -9306,7 +9422,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="38" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>194</v>
       </c>
@@ -9641,7 +9757,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="39" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>193</v>
       </c>
@@ -9982,7 +10098,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>194</v>
       </c>
@@ -10317,12 +10433,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:141" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="43" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:141" x14ac:dyDescent="0.15">
       <c r="B43" s="1" t="s">
         <v>1</v>
       </c>
@@ -10534,7 +10650,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="44" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>189</v>
       </c>
@@ -10692,7 +10808,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="45" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>189</v>
       </c>
@@ -10850,7 +10966,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>189</v>
       </c>
@@ -11006,7 +11122,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>189</v>
       </c>
@@ -11162,7 +11278,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:141" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:141" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>193</v>
       </c>
@@ -11329,7 +11445,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>194</v>
       </c>
@@ -11496,12 +11612,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:71" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="57" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:71" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>1</v>
       </c>
@@ -11713,7 +11829,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="58" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
         <v>189</v>
       </c>
@@ -11871,7 +11987,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
         <v>189</v>
       </c>
@@ -12029,7 +12145,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
         <v>189</v>
       </c>
@@ -12184,7 +12300,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="61" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>189</v>
       </c>
@@ -12339,7 +12455,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>193</v>
       </c>
@@ -12506,7 +12622,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>194</v>
       </c>
@@ -12681,1525 +12797,94 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:ER3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:CH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" customWidth="1"/>
-    <col min="4" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" customWidth="1"/>
-    <col min="15" max="15" width="10.77734375" customWidth="1"/>
-    <col min="16" max="16" width="24.21875" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" customWidth="1"/>
-    <col min="18" max="18" width="16.44140625" customWidth="1"/>
-    <col min="19" max="19" width="11.88671875" customWidth="1"/>
-    <col min="20" max="20" width="16.44140625" customWidth="1"/>
-    <col min="21" max="21" width="19.77734375" customWidth="1"/>
-    <col min="22" max="22" width="24.21875" customWidth="1"/>
-    <col min="23" max="23" width="11.88671875" customWidth="1"/>
-    <col min="24" max="24" width="13" customWidth="1"/>
-    <col min="25" max="26" width="14.109375" customWidth="1"/>
-    <col min="27" max="27" width="16.44140625" customWidth="1"/>
-    <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="16.44140625" customWidth="1"/>
-    <col min="30" max="30" width="13" customWidth="1"/>
-    <col min="31" max="31" width="14.109375" customWidth="1"/>
-    <col min="32" max="32" width="9.6640625" customWidth="1"/>
-    <col min="33" max="34" width="17.5546875" customWidth="1"/>
-    <col min="35" max="35" width="9.6640625" customWidth="1"/>
-    <col min="36" max="36" width="22" customWidth="1"/>
-    <col min="37" max="37" width="14.109375" customWidth="1"/>
-    <col min="38" max="38" width="18.6640625" customWidth="1"/>
-    <col min="39" max="39" width="11.88671875" customWidth="1"/>
-    <col min="40" max="40" width="16.44140625" customWidth="1"/>
-    <col min="41" max="41" width="10.77734375" customWidth="1"/>
-    <col min="42" max="42" width="13" customWidth="1"/>
-    <col min="43" max="43" width="22" customWidth="1"/>
-    <col min="44" max="44" width="8.6640625" customWidth="1"/>
-    <col min="45" max="45" width="23.109375" customWidth="1"/>
-    <col min="46" max="47" width="11.88671875" customWidth="1"/>
-    <col min="48" max="48" width="5.6640625" customWidth="1"/>
-    <col min="49" max="49" width="10.77734375" customWidth="1"/>
-    <col min="50" max="50" width="14.109375" customWidth="1"/>
-    <col min="51" max="51" width="17.5546875" customWidth="1"/>
-    <col min="52" max="52" width="11.88671875" customWidth="1"/>
-    <col min="53" max="53" width="16.44140625" customWidth="1"/>
-    <col min="54" max="54" width="19.77734375" customWidth="1"/>
-    <col min="55" max="55" width="17.5546875" customWidth="1"/>
-    <col min="56" max="56" width="16.44140625" customWidth="1"/>
-    <col min="57" max="57" width="15.21875" customWidth="1"/>
-    <col min="58" max="58" width="16.44140625" customWidth="1"/>
-    <col min="59" max="59" width="20.88671875" customWidth="1"/>
-    <col min="60" max="60" width="15.21875" customWidth="1"/>
-    <col min="61" max="61" width="20.88671875" customWidth="1"/>
-    <col min="62" max="62" width="16.44140625" customWidth="1"/>
-    <col min="63" max="63" width="17.5546875" customWidth="1"/>
-    <col min="64" max="64" width="16.44140625" customWidth="1"/>
-    <col min="65" max="66" width="15.21875" customWidth="1"/>
-    <col min="67" max="67" width="17.5546875" customWidth="1"/>
-    <col min="68" max="68" width="15.21875" customWidth="1"/>
-    <col min="69" max="69" width="13" customWidth="1"/>
-    <col min="70" max="70" width="17.5546875" customWidth="1"/>
-    <col min="71" max="71" width="9.6640625" customWidth="1"/>
-    <col min="72" max="72" width="10.77734375" customWidth="1"/>
-    <col min="73" max="73" width="13" customWidth="1"/>
-    <col min="74" max="74" width="10.77734375" customWidth="1"/>
-    <col min="75" max="75" width="17.5546875" customWidth="1"/>
-    <col min="76" max="76" width="14.109375" customWidth="1"/>
-    <col min="77" max="77" width="18.6640625" customWidth="1"/>
-    <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="17.5546875" customWidth="1"/>
-    <col min="80" max="80" width="9.6640625" customWidth="1"/>
-    <col min="81" max="81" width="19.77734375" customWidth="1"/>
-    <col min="82" max="82" width="15.21875" customWidth="1"/>
-    <col min="83" max="83" width="24.21875" customWidth="1"/>
-    <col min="84" max="85" width="19.77734375" customWidth="1"/>
-    <col min="86" max="86" width="18.6640625" customWidth="1"/>
-    <col min="87" max="87" width="26.5546875" customWidth="1"/>
-    <col min="88" max="88" width="22" customWidth="1"/>
-    <col min="89" max="89" width="25.44140625" customWidth="1"/>
-    <col min="90" max="90" width="22" customWidth="1"/>
-    <col min="91" max="91" width="13" customWidth="1"/>
-    <col min="92" max="92" width="19.77734375" customWidth="1"/>
-    <col min="93" max="93" width="16.44140625" customWidth="1"/>
-    <col min="94" max="94" width="14.109375" customWidth="1"/>
-    <col min="95" max="95" width="19.77734375" customWidth="1"/>
-    <col min="96" max="96" width="15.21875" customWidth="1"/>
-    <col min="97" max="97" width="14.109375" customWidth="1"/>
-    <col min="98" max="98" width="8.6640625" customWidth="1"/>
-    <col min="99" max="99" width="16.44140625" customWidth="1"/>
-    <col min="100" max="100" width="11.88671875" customWidth="1"/>
-    <col min="101" max="101" width="16.44140625" customWidth="1"/>
-    <col min="102" max="103" width="19.77734375" customWidth="1"/>
-    <col min="104" max="104" width="18.6640625" customWidth="1"/>
-    <col min="105" max="105" width="16.44140625" customWidth="1"/>
-    <col min="106" max="106" width="8.6640625" customWidth="1"/>
-    <col min="107" max="107" width="23.109375" customWidth="1"/>
-    <col min="108" max="108" width="20.88671875" customWidth="1"/>
-    <col min="109" max="109" width="19.77734375" customWidth="1"/>
-    <col min="110" max="110" width="26.5546875" customWidth="1"/>
-    <col min="111" max="111" width="18.6640625" customWidth="1"/>
-    <col min="112" max="112" width="22" customWidth="1"/>
-    <col min="113" max="113" width="24.21875" customWidth="1"/>
-    <col min="114" max="114" width="11.88671875" customWidth="1"/>
-    <col min="115" max="116" width="18.6640625" customWidth="1"/>
-    <col min="117" max="117" width="14.109375" customWidth="1"/>
-    <col min="118" max="118" width="19.77734375" customWidth="1"/>
-    <col min="119" max="119" width="16.44140625" customWidth="1"/>
-    <col min="120" max="120" width="14.109375" customWidth="1"/>
-    <col min="121" max="121" width="19.77734375" customWidth="1"/>
-    <col min="122" max="122" width="13" customWidth="1"/>
-    <col min="123" max="123" width="17.5546875" customWidth="1"/>
-    <col min="124" max="124" width="15.21875" customWidth="1"/>
-    <col min="125" max="125" width="19.77734375" customWidth="1"/>
-    <col min="126" max="126" width="20.88671875" customWidth="1"/>
-    <col min="127" max="127" width="18.6640625" customWidth="1"/>
-    <col min="128" max="128" width="24.21875" customWidth="1"/>
-    <col min="129" max="129" width="26.5546875" customWidth="1"/>
-    <col min="130" max="130" width="11.88671875" customWidth="1"/>
-    <col min="131" max="131" width="18.6640625" customWidth="1"/>
-    <col min="132" max="132" width="15.21875" customWidth="1"/>
-    <col min="133" max="133" width="14.109375" customWidth="1"/>
-    <col min="134" max="134" width="15.21875" customWidth="1"/>
-    <col min="135" max="135" width="18.6640625" customWidth="1"/>
-    <col min="136" max="136" width="15.21875" customWidth="1"/>
-    <col min="137" max="137" width="20.88671875" customWidth="1"/>
-    <col min="138" max="138" width="24.21875" customWidth="1"/>
-    <col min="139" max="139" width="19.77734375" customWidth="1"/>
-    <col min="140" max="140" width="15.21875" customWidth="1"/>
-    <col min="141" max="141" width="13" customWidth="1"/>
-    <col min="142" max="142" width="16.44140625" customWidth="1"/>
-    <col min="143" max="143" width="19.77734375" customWidth="1"/>
-    <col min="144" max="144" width="23.109375" customWidth="1"/>
-    <col min="145" max="145" width="27.6640625" customWidth="1"/>
-    <col min="146" max="146" width="18.6640625" customWidth="1"/>
-    <col min="147" max="147" width="15.21875" customWidth="1"/>
-    <col min="148" max="148" width="13" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="11.875" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="6" max="6" width="8.625" customWidth="1"/>
+    <col min="7" max="7" width="20.875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="10.75" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="15" width="15.25" customWidth="1"/>
+    <col min="16" max="16" width="14.125" customWidth="1"/>
+    <col min="17" max="17" width="17.5" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="19" max="19" width="16.5" customWidth="1"/>
+    <col min="20" max="20" width="11.875" customWidth="1"/>
+    <col min="21" max="21" width="8.625" customWidth="1"/>
+    <col min="22" max="22" width="10.75" customWidth="1"/>
+    <col min="23" max="23" width="7.625" customWidth="1"/>
+    <col min="24" max="24" width="17.5" customWidth="1"/>
+    <col min="25" max="25" width="9.625" customWidth="1"/>
+    <col min="26" max="27" width="13" customWidth="1"/>
+    <col min="28" max="28" width="11.875" customWidth="1"/>
+    <col min="29" max="29" width="15.25" customWidth="1"/>
+    <col min="30" max="30" width="10.75" customWidth="1"/>
+    <col min="31" max="31" width="16.5" customWidth="1"/>
+    <col min="32" max="32" width="15.25" customWidth="1"/>
+    <col min="33" max="33" width="22" customWidth="1"/>
+    <col min="34" max="34" width="11.875" customWidth="1"/>
+    <col min="35" max="35" width="20.875" customWidth="1"/>
+    <col min="36" max="36" width="24.25" customWidth="1"/>
+    <col min="37" max="37" width="23.125" customWidth="1"/>
+    <col min="38" max="39" width="13" customWidth="1"/>
+    <col min="40" max="40" width="14.125" customWidth="1"/>
+    <col min="41" max="41" width="13" customWidth="1"/>
+    <col min="42" max="43" width="14.125" customWidth="1"/>
+    <col min="44" max="45" width="15.25" customWidth="1"/>
+    <col min="46" max="47" width="13" customWidth="1"/>
+    <col min="48" max="48" width="14.125" customWidth="1"/>
+    <col min="49" max="49" width="16.5" customWidth="1"/>
+    <col min="50" max="50" width="23.125" customWidth="1"/>
+    <col min="51" max="51" width="19.75" customWidth="1"/>
+    <col min="52" max="52" width="23.125" customWidth="1"/>
+    <col min="53" max="53" width="15.25" customWidth="1"/>
+    <col min="54" max="54" width="18.625" customWidth="1"/>
+    <col min="55" max="55" width="17.5" customWidth="1"/>
+    <col min="56" max="57" width="16.5" customWidth="1"/>
+    <col min="58" max="59" width="17.5" customWidth="1"/>
+    <col min="60" max="60" width="16.5" customWidth="1"/>
+    <col min="61" max="61" width="17.5" customWidth="1"/>
+    <col min="62" max="62" width="18.625" customWidth="1"/>
+    <col min="63" max="63" width="25.5" customWidth="1"/>
+    <col min="64" max="64" width="27.625" customWidth="1"/>
+    <col min="65" max="65" width="20.875" customWidth="1"/>
+    <col min="66" max="66" width="16.5" customWidth="1"/>
+    <col min="67" max="67" width="23.125" customWidth="1"/>
+    <col min="68" max="68" width="9.625" customWidth="1"/>
+    <col min="69" max="69" width="23.125" customWidth="1"/>
+    <col min="70" max="70" width="18.625" customWidth="1"/>
+    <col min="71" max="71" width="24.25" customWidth="1"/>
+    <col min="72" max="72" width="19.75" customWidth="1"/>
+    <col min="73" max="73" width="14.125" customWidth="1"/>
+    <col min="74" max="74" width="17.5" customWidth="1"/>
+    <col min="75" max="75" width="15.25" customWidth="1"/>
+    <col min="76" max="76" width="16.5" customWidth="1"/>
+    <col min="77" max="77" width="18.625" customWidth="1"/>
+    <col min="78" max="78" width="19.75" customWidth="1"/>
+    <col min="79" max="79" width="26.5" customWidth="1"/>
+    <col min="80" max="80" width="14.125" customWidth="1"/>
+    <col min="81" max="81" width="13" customWidth="1"/>
+    <col min="82" max="82" width="22" customWidth="1"/>
+    <col min="83" max="83" width="17.5" customWidth="1"/>
+    <col min="84" max="84" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="EF1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="EG1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="EH1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="EI1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="EJ1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="EK1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EL1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="ER1" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CC2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CF2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CJ2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CK2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CL2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CM2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CN2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CO2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CP2" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="CQ2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="CR2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="CS2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CT2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CU2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="CV2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="CW2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CX2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CY2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CZ2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DA2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DB2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DC2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DF2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DG2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DH2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DI2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DJ2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="DK2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DL2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DM2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DN2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DQ2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="DR2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DS2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DT2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DU2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DV2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DW2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DX2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DY2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DZ2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="EA2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EB2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="EC2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="ED2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="EE2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="EF2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EG2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EH2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EK2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EL2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EM2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EN2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EO2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EP2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EQ2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="ER2" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS3" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BO3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BU3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CC3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CF3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CG3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CI3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CJ3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CK3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CL3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CM3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="CN3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CO3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CP3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="CQ3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="CR3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="CS3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CT3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CU3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="CV3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="CW3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CX3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CY3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CZ3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DA3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DB3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DC3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DD3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DE3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DF3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DG3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DH3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DI3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DJ3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DK3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DL3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DM3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DN3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DO3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DP3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="DQ3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="DR3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DS3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DT3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DU3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DV3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DW3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DX3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DY3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DZ3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="EA3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EB3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="EC3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="ED3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="EE3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="EF3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EG3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EH3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EK3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EL3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EM3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EN3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EO3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EP3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EQ3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="ER3" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CH5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" customWidth="1"/>
-    <col min="16" max="17" width="15.21875" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" customWidth="1"/>
-    <col min="19" max="19" width="17.5546875" customWidth="1"/>
-    <col min="20" max="20" width="14.109375" customWidth="1"/>
-    <col min="21" max="21" width="16.44140625" customWidth="1"/>
-    <col min="22" max="22" width="11.88671875" customWidth="1"/>
-    <col min="23" max="23" width="8.6640625" customWidth="1"/>
-    <col min="24" max="24" width="10.77734375" customWidth="1"/>
-    <col min="25" max="25" width="7.6640625" customWidth="1"/>
-    <col min="26" max="26" width="17.5546875" customWidth="1"/>
-    <col min="27" max="27" width="9.6640625" customWidth="1"/>
-    <col min="28" max="29" width="13" customWidth="1"/>
-    <col min="30" max="30" width="11.88671875" customWidth="1"/>
-    <col min="31" max="31" width="15.21875" customWidth="1"/>
-    <col min="32" max="32" width="10.77734375" customWidth="1"/>
-    <col min="33" max="33" width="16.44140625" customWidth="1"/>
-    <col min="34" max="34" width="15.21875" customWidth="1"/>
-    <col min="35" max="35" width="22" customWidth="1"/>
-    <col min="36" max="36" width="11.88671875" customWidth="1"/>
-    <col min="37" max="37" width="20.88671875" customWidth="1"/>
-    <col min="38" max="38" width="24.21875" customWidth="1"/>
-    <col min="39" max="39" width="23.109375" customWidth="1"/>
-    <col min="40" max="41" width="13" customWidth="1"/>
-    <col min="42" max="42" width="14.109375" customWidth="1"/>
-    <col min="43" max="43" width="13" customWidth="1"/>
-    <col min="44" max="45" width="14.109375" customWidth="1"/>
-    <col min="46" max="47" width="15.21875" customWidth="1"/>
-    <col min="48" max="49" width="13" customWidth="1"/>
-    <col min="50" max="50" width="14.109375" customWidth="1"/>
-    <col min="51" max="51" width="16.44140625" customWidth="1"/>
-    <col min="52" max="52" width="23.109375" customWidth="1"/>
-    <col min="53" max="53" width="19.77734375" customWidth="1"/>
-    <col min="54" max="54" width="23.109375" customWidth="1"/>
-    <col min="55" max="55" width="15.21875" customWidth="1"/>
-    <col min="56" max="56" width="18.6640625" customWidth="1"/>
-    <col min="57" max="57" width="17.5546875" customWidth="1"/>
-    <col min="58" max="59" width="16.44140625" customWidth="1"/>
-    <col min="60" max="61" width="17.5546875" customWidth="1"/>
-    <col min="62" max="62" width="16.44140625" customWidth="1"/>
-    <col min="63" max="63" width="17.5546875" customWidth="1"/>
-    <col min="64" max="64" width="18.6640625" customWidth="1"/>
-    <col min="65" max="65" width="25.44140625" customWidth="1"/>
-    <col min="66" max="66" width="27.6640625" customWidth="1"/>
-    <col min="67" max="67" width="20.88671875" customWidth="1"/>
-    <col min="68" max="68" width="16.44140625" customWidth="1"/>
-    <col min="69" max="69" width="23.109375" customWidth="1"/>
-    <col min="70" max="70" width="9.6640625" customWidth="1"/>
-    <col min="71" max="71" width="23.109375" customWidth="1"/>
-    <col min="72" max="72" width="18.6640625" customWidth="1"/>
-    <col min="73" max="73" width="24.21875" customWidth="1"/>
-    <col min="74" max="74" width="19.77734375" customWidth="1"/>
-    <col min="75" max="75" width="14.109375" customWidth="1"/>
-    <col min="76" max="76" width="17.5546875" customWidth="1"/>
-    <col min="77" max="77" width="15.21875" customWidth="1"/>
-    <col min="78" max="78" width="16.44140625" customWidth="1"/>
-    <col min="79" max="79" width="18.6640625" customWidth="1"/>
-    <col min="80" max="80" width="19.77734375" customWidth="1"/>
-    <col min="81" max="81" width="26.5546875" customWidth="1"/>
-    <col min="82" max="82" width="14.109375" customWidth="1"/>
-    <col min="83" max="83" width="13" customWidth="1"/>
-    <col min="84" max="84" width="22" customWidth="1"/>
-    <col min="85" max="85" width="17.5546875" customWidth="1"/>
-    <col min="86" max="86" width="20.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:86" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>196</v>
       </c>
@@ -14459,7 +13144,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>151</v>
       </c>
@@ -14479,10 +13164,10 @@
         <v>276</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>277</v>
+        <v>506</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>278</v>
+        <v>507</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>159</v>
@@ -14491,10 +13176,10 @@
         <v>281</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>279</v>
+        <v>508</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>157</v>
@@ -14506,7 +13191,7 @@
         <v>281</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>159</v>
+        <v>287</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>159</v>
@@ -14527,7 +13212,7 @@
         <v>155</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>283</v>
+        <v>510</v>
       </c>
       <c r="X2" s="4" t="s">
         <v>283</v>
@@ -14539,7 +13224,7 @@
         <v>160</v>
       </c>
       <c r="AA2" s="4" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="AB2" s="4" t="s">
         <v>159</v>
@@ -14593,7 +13278,7 @@
         <v>159</v>
       </c>
       <c r="AS2" s="4" t="s">
-        <v>159</v>
+        <v>287</v>
       </c>
       <c r="AT2" s="4" t="s">
         <v>159</v>
@@ -14659,10 +13344,10 @@
         <v>159</v>
       </c>
       <c r="BO2" s="4" t="s">
-        <v>279</v>
+        <v>508</v>
       </c>
       <c r="BP2" s="4" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="BQ2" s="4" t="s">
         <v>157</v>
@@ -14719,7 +13404,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>151</v>
       </c>
@@ -14739,34 +13424,34 @@
         <v>286</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>277</v>
+        <v>506</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>278</v>
+        <v>507</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>159</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>508</v>
+        <v>281</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>509</v>
+        <v>279</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>157</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>508</v>
+        <v>281</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>508</v>
+        <v>281</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>159</v>
+        <v>282</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>159</v>
@@ -14787,7 +13472,7 @@
         <v>155</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>283</v>
+        <v>510</v>
       </c>
       <c r="X3" s="4" t="s">
         <v>283</v>
@@ -14799,7 +13484,7 @@
         <v>160</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="AB3" s="4" t="s">
         <v>159</v>
@@ -14853,7 +13538,7 @@
         <v>159</v>
       </c>
       <c r="AS3" s="4" t="s">
-        <v>159</v>
+        <v>282</v>
       </c>
       <c r="AT3" s="4" t="s">
         <v>159</v>
@@ -14919,10 +13604,10 @@
         <v>159</v>
       </c>
       <c r="BO3" s="4" t="s">
-        <v>509</v>
+        <v>279</v>
       </c>
       <c r="BP3" s="4" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="BQ3" s="4" t="s">
         <v>157</v>
@@ -14979,8 +13664,8 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:86" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:86" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:86" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:86" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14988,30 +13673,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" customWidth="1"/>
-    <col min="14" max="14" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="5" width="7.625" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
+    <col min="10" max="10" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="10.75" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>196</v>
       </c>
@@ -15033,29 +13717,41 @@
       <c r="G1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>290</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>292</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>206</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>293</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>513</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>151</v>
       </c>
@@ -15072,34 +13768,37 @@
         <v>276</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>277</v>
+        <v>506</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>294</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>159</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>287</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>159</v>
       </c>
+      <c r="Q2" s="1" t="s">
+        <v>514</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>151</v>
       </c>
@@ -15116,31 +13815,34 @@
         <v>286</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>277</v>
+        <v>506</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>294</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>159</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="1" t="s">
         <v>282</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>159</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -15149,149 +13851,146 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI5"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:EI17"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="5" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" customWidth="1"/>
-    <col min="15" max="16" width="8.6640625" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" customWidth="1"/>
-    <col min="21" max="21" width="10.77734375" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" customWidth="1"/>
-    <col min="23" max="23" width="11.88671875" customWidth="1"/>
-    <col min="24" max="24" width="16.44140625" customWidth="1"/>
-    <col min="25" max="25" width="14.109375" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" customWidth="1"/>
-    <col min="27" max="27" width="16.44140625" customWidth="1"/>
-    <col min="28" max="28" width="8.6640625" customWidth="1"/>
-    <col min="29" max="29" width="9.6640625" customWidth="1"/>
-    <col min="30" max="30" width="23.109375" customWidth="1"/>
-    <col min="31" max="31" width="10.77734375" customWidth="1"/>
-    <col min="32" max="32" width="15.21875" customWidth="1"/>
-    <col min="33" max="34" width="14.109375" customWidth="1"/>
-    <col min="35" max="36" width="13" customWidth="1"/>
-    <col min="37" max="37" width="9.6640625" customWidth="1"/>
-    <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="10.77734375" customWidth="1"/>
-    <col min="40" max="40" width="14.109375" customWidth="1"/>
-    <col min="41" max="41" width="11.88671875" customWidth="1"/>
-    <col min="42" max="43" width="9.6640625" customWidth="1"/>
-    <col min="44" max="45" width="14.109375" customWidth="1"/>
-    <col min="46" max="46" width="9.6640625" customWidth="1"/>
-    <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="48" width="14.109375" customWidth="1"/>
-    <col min="49" max="49" width="8.6640625" customWidth="1"/>
-    <col min="50" max="50" width="17.5546875" customWidth="1"/>
-    <col min="51" max="51" width="11.88671875" customWidth="1"/>
-    <col min="52" max="52" width="8.6640625" customWidth="1"/>
-    <col min="53" max="53" width="9.6640625" customWidth="1"/>
-    <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="16.44140625" customWidth="1"/>
-    <col min="56" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="16.44140625" customWidth="1"/>
-    <col min="59" max="59" width="15.21875" customWidth="1"/>
-    <col min="60" max="61" width="17.5546875" customWidth="1"/>
-    <col min="62" max="62" width="14.109375" customWidth="1"/>
-    <col min="63" max="63" width="11.88671875" customWidth="1"/>
-    <col min="64" max="64" width="8.6640625" customWidth="1"/>
-    <col min="65" max="65" width="14.109375" customWidth="1"/>
-    <col min="66" max="66" width="9.6640625" customWidth="1"/>
-    <col min="67" max="67" width="17.5546875" customWidth="1"/>
-    <col min="68" max="68" width="10.77734375" customWidth="1"/>
-    <col min="69" max="69" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="6" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="11.875" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="12" width="8.625" customWidth="1"/>
+    <col min="13" max="13" width="10.75" customWidth="1"/>
+    <col min="14" max="14" width="8.625" customWidth="1"/>
+    <col min="15" max="15" width="6.625" customWidth="1"/>
+    <col min="16" max="16" width="7.625" customWidth="1"/>
+    <col min="17" max="17" width="10.75" customWidth="1"/>
+    <col min="18" max="18" width="9.625" customWidth="1"/>
+    <col min="19" max="19" width="11.875" customWidth="1"/>
+    <col min="20" max="20" width="16.5" customWidth="1"/>
+    <col min="21" max="21" width="14.125" customWidth="1"/>
+    <col min="22" max="22" width="9.625" customWidth="1"/>
+    <col min="23" max="23" width="16.5" customWidth="1"/>
+    <col min="24" max="24" width="8.625" customWidth="1"/>
+    <col min="25" max="25" width="9.625" customWidth="1"/>
+    <col min="26" max="26" width="23.125" customWidth="1"/>
+    <col min="27" max="27" width="10.75" customWidth="1"/>
+    <col min="28" max="28" width="15.25" customWidth="1"/>
+    <col min="29" max="30" width="14.125" customWidth="1"/>
+    <col min="31" max="32" width="13" customWidth="1"/>
+    <col min="33" max="33" width="9.625" customWidth="1"/>
+    <col min="34" max="34" width="13" customWidth="1"/>
+    <col min="35" max="35" width="10.75" customWidth="1"/>
+    <col min="36" max="36" width="14.125" customWidth="1"/>
+    <col min="37" max="37" width="11.875" customWidth="1"/>
+    <col min="38" max="39" width="9.625" customWidth="1"/>
+    <col min="40" max="41" width="14.125" customWidth="1"/>
+    <col min="42" max="42" width="9.625" customWidth="1"/>
+    <col min="43" max="43" width="13" customWidth="1"/>
+    <col min="44" max="44" width="14.125" customWidth="1"/>
+    <col min="45" max="45" width="8.625" customWidth="1"/>
+    <col min="46" max="46" width="17.5" customWidth="1"/>
+    <col min="47" max="47" width="11.875" customWidth="1"/>
+    <col min="48" max="48" width="8.625" customWidth="1"/>
+    <col min="49" max="49" width="9.625" customWidth="1"/>
+    <col min="50" max="50" width="13" customWidth="1"/>
+    <col min="51" max="51" width="16.5" customWidth="1"/>
+    <col min="52" max="53" width="13" customWidth="1"/>
+    <col min="54" max="54" width="16.5" customWidth="1"/>
+    <col min="55" max="55" width="15.25" customWidth="1"/>
+    <col min="56" max="57" width="17.5" customWidth="1"/>
+    <col min="58" max="58" width="14.125" customWidth="1"/>
+    <col min="59" max="59" width="11.875" customWidth="1"/>
+    <col min="60" max="60" width="8.625" customWidth="1"/>
+    <col min="61" max="61" width="14.125" customWidth="1"/>
+    <col min="62" max="62" width="9.625" customWidth="1"/>
+    <col min="63" max="63" width="17.5" customWidth="1"/>
+    <col min="64" max="64" width="10.75" customWidth="1"/>
+    <col min="65" max="65" width="11.875" customWidth="1"/>
+    <col min="66" max="66" width="13" customWidth="1"/>
+    <col min="67" max="67" width="11.875" customWidth="1"/>
+    <col min="68" max="68" width="15.25" customWidth="1"/>
+    <col min="69" max="69" width="11.875" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.88671875" customWidth="1"/>
-    <col min="72" max="72" width="15.21875" customWidth="1"/>
-    <col min="73" max="73" width="11.88671875" customWidth="1"/>
+    <col min="71" max="71" width="17.5" customWidth="1"/>
+    <col min="72" max="72" width="20.875" customWidth="1"/>
+    <col min="73" max="73" width="16.5" customWidth="1"/>
     <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="17.5546875" customWidth="1"/>
-    <col min="76" max="76" width="20.88671875" customWidth="1"/>
-    <col min="77" max="77" width="16.44140625" customWidth="1"/>
-    <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="11.88671875" customWidth="1"/>
-    <col min="80" max="80" width="10.77734375" customWidth="1"/>
-    <col min="81" max="81" width="11.88671875" customWidth="1"/>
-    <col min="82" max="82" width="9.6640625" customWidth="1"/>
-    <col min="83" max="83" width="7.6640625" customWidth="1"/>
-    <col min="84" max="85" width="17.5546875" customWidth="1"/>
-    <col min="86" max="86" width="16.44140625" customWidth="1"/>
-    <col min="87" max="87" width="11.88671875" customWidth="1"/>
-    <col min="88" max="88" width="14.109375" customWidth="1"/>
-    <col min="89" max="89" width="16.44140625" customWidth="1"/>
-    <col min="90" max="90" width="10.77734375" customWidth="1"/>
-    <col min="91" max="91" width="11.88671875" customWidth="1"/>
-    <col min="92" max="92" width="19.77734375" customWidth="1"/>
-    <col min="93" max="93" width="16.44140625" customWidth="1"/>
-    <col min="94" max="94" width="23.109375" customWidth="1"/>
-    <col min="95" max="95" width="7.6640625" customWidth="1"/>
-    <col min="96" max="96" width="18.6640625" customWidth="1"/>
-    <col min="97" max="97" width="10.77734375" customWidth="1"/>
-    <col min="98" max="98" width="14.109375" customWidth="1"/>
-    <col min="99" max="99" width="13" customWidth="1"/>
-    <col min="100" max="100" width="16.44140625" customWidth="1"/>
-    <col min="101" max="102" width="13" customWidth="1"/>
-    <col min="103" max="103" width="9.6640625" customWidth="1"/>
-    <col min="104" max="104" width="16.44140625" customWidth="1"/>
-    <col min="105" max="105" width="14.109375" customWidth="1"/>
-    <col min="106" max="106" width="11.88671875" customWidth="1"/>
-    <col min="107" max="108" width="15.21875" customWidth="1"/>
-    <col min="109" max="109" width="9.6640625" customWidth="1"/>
-    <col min="110" max="110" width="13" customWidth="1"/>
-    <col min="111" max="111" width="9.6640625" customWidth="1"/>
-    <col min="112" max="112" width="15.21875" customWidth="1"/>
-    <col min="113" max="113" width="17.5546875" customWidth="1"/>
-    <col min="114" max="114" width="9.6640625" customWidth="1"/>
-    <col min="115" max="115" width="19.77734375" customWidth="1"/>
-    <col min="116" max="116" width="16.44140625" customWidth="1"/>
-    <col min="117" max="117" width="20.88671875" customWidth="1"/>
-    <col min="118" max="118" width="24.21875" customWidth="1"/>
-    <col min="119" max="119" width="16.44140625" customWidth="1"/>
-    <col min="120" max="120" width="17.5546875" customWidth="1"/>
-    <col min="121" max="121" width="22" customWidth="1"/>
-    <col min="122" max="123" width="20.88671875" customWidth="1"/>
-    <col min="124" max="124" width="19.77734375" customWidth="1"/>
-    <col min="125" max="125" width="17.5546875" customWidth="1"/>
-    <col min="126" max="126" width="20.88671875" customWidth="1"/>
-    <col min="127" max="127" width="18.6640625" customWidth="1"/>
-    <col min="128" max="128" width="10.77734375" customWidth="1"/>
-    <col min="129" max="129" width="15.21875" customWidth="1"/>
-    <col min="130" max="130" width="13" customWidth="1"/>
-    <col min="131" max="131" width="14.109375" customWidth="1"/>
-    <col min="132" max="132" width="10.77734375" customWidth="1"/>
-    <col min="133" max="133" width="11.88671875" customWidth="1"/>
-    <col min="134" max="134" width="15.21875" customWidth="1"/>
-    <col min="135" max="135" width="16.44140625" customWidth="1"/>
-    <col min="136" max="136" width="14.109375" customWidth="1"/>
-    <col min="137" max="137" width="17.5546875" customWidth="1"/>
-    <col min="138" max="138" width="14.109375" customWidth="1"/>
-    <col min="139" max="139" width="10.77734375" customWidth="1"/>
+    <col min="75" max="75" width="11.875" customWidth="1"/>
+    <col min="76" max="76" width="10.75" customWidth="1"/>
+    <col min="77" max="77" width="11.875" customWidth="1"/>
+    <col min="78" max="78" width="9.625" customWidth="1"/>
+    <col min="79" max="79" width="7.625" customWidth="1"/>
+    <col min="80" max="81" width="17.5" customWidth="1"/>
+    <col min="82" max="82" width="16.5" customWidth="1"/>
+    <col min="83" max="83" width="11.875" customWidth="1"/>
+    <col min="84" max="84" width="14.125" customWidth="1"/>
+    <col min="85" max="85" width="16.5" customWidth="1"/>
+    <col min="86" max="86" width="10.75" customWidth="1"/>
+    <col min="87" max="87" width="11.875" customWidth="1"/>
+    <col min="88" max="88" width="19.75" customWidth="1"/>
+    <col min="89" max="89" width="16.5" customWidth="1"/>
+    <col min="90" max="90" width="23.125" customWidth="1"/>
+    <col min="91" max="91" width="7.625" customWidth="1"/>
+    <col min="92" max="92" width="18.625" customWidth="1"/>
+    <col min="93" max="93" width="10.75" customWidth="1"/>
+    <col min="94" max="94" width="14.125" customWidth="1"/>
+    <col min="95" max="95" width="13" customWidth="1"/>
+    <col min="96" max="96" width="16.5" customWidth="1"/>
+    <col min="97" max="98" width="13" customWidth="1"/>
+    <col min="99" max="99" width="9.625" customWidth="1"/>
+    <col min="100" max="100" width="16.5" customWidth="1"/>
+    <col min="101" max="101" width="14.125" customWidth="1"/>
+    <col min="102" max="102" width="11.875" customWidth="1"/>
+    <col min="103" max="104" width="15.25" customWidth="1"/>
+    <col min="105" max="105" width="9.625" customWidth="1"/>
+    <col min="106" max="106" width="13" customWidth="1"/>
+    <col min="107" max="107" width="9.625" customWidth="1"/>
+    <col min="108" max="108" width="15.25" customWidth="1"/>
+    <col min="109" max="109" width="17.5" customWidth="1"/>
+    <col min="110" max="110" width="9.625" customWidth="1"/>
+    <col min="111" max="111" width="19.75" customWidth="1"/>
+    <col min="112" max="112" width="16.5" customWidth="1"/>
+    <col min="113" max="113" width="20.875" customWidth="1"/>
+    <col min="114" max="114" width="24.25" customWidth="1"/>
+    <col min="115" max="115" width="16.5" customWidth="1"/>
+    <col min="116" max="116" width="17.5" customWidth="1"/>
+    <col min="117" max="117" width="22" customWidth="1"/>
+    <col min="118" max="119" width="20.875" customWidth="1"/>
+    <col min="120" max="120" width="19.75" customWidth="1"/>
+    <col min="121" max="121" width="17.5" customWidth="1"/>
+    <col min="122" max="122" width="20.875" customWidth="1"/>
+    <col min="123" max="123" width="18.625" customWidth="1"/>
+    <col min="124" max="124" width="10.75" customWidth="1"/>
+    <col min="125" max="125" width="15.25" customWidth="1"/>
+    <col min="126" max="126" width="13" customWidth="1"/>
+    <col min="127" max="127" width="14.125" customWidth="1"/>
+    <col min="128" max="128" width="10.75" customWidth="1"/>
+    <col min="129" max="129" width="11.875" customWidth="1"/>
+    <col min="130" max="130" width="15.25" customWidth="1"/>
+    <col min="131" max="131" width="16.5" customWidth="1"/>
+    <col min="132" max="132" width="14.125" customWidth="1"/>
+    <col min="133" max="133" width="17.5" customWidth="1"/>
+    <col min="134" max="134" width="14.125" customWidth="1"/>
+    <col min="135" max="135" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -15324,7 +14023,7 @@
       <c r="L1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>197</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -15342,19 +14041,19 @@
       <c r="R1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>305</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>306</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>308</v>
       </c>
       <c r="X1" s="1" t="s">
@@ -15393,7 +14092,7 @@
       <c r="AI1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>320</v>
       </c>
       <c r="AK1" s="1" t="s">
@@ -15405,7 +14104,7 @@
       <c r="AM1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AN1" s="1" t="s">
         <v>324</v>
       </c>
       <c r="AO1" s="1" t="s">
@@ -15706,27 +14405,30 @@
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>436</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>437</v>
+        <v>523</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>437</v>
+        <v>524</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>410</v>
+        <v>525</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>152</v>
@@ -15737,17 +14439,17 @@
       <c r="L2" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>276</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>277</v>
+        <v>506</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>278</v>
+        <v>507</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>283</v>
+        <v>510</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>411</v>
@@ -15755,23 +14457,23 @@
       <c r="R2" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="2" t="s">
         <v>169</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="1" t="s">
         <v>438</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>413</v>
+      <c r="W2" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>414</v>
+        <v>519</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>157</v>
@@ -15780,7 +14482,7 @@
         <v>157</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>158</v>
+        <v>526</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>281</v>
@@ -15806,7 +14508,7 @@
       <c r="AI2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>157</v>
       </c>
       <c r="AK2" s="1" t="s">
@@ -15818,7 +14520,7 @@
       <c r="AM2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AN2" s="1" t="s">
         <v>157</v>
       </c>
       <c r="AO2" s="1" t="s">
@@ -15828,7 +14530,7 @@
         <v>411</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>415</v>
+        <v>283</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>152</v>
@@ -15852,7 +14554,7 @@
         <v>157</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>169</v>
+        <v>517</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>159</v>
@@ -15915,7 +14617,7 @@
         <v>151</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>159</v>
+        <v>518</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>157</v>
@@ -15924,7 +14626,7 @@
         <v>157</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="CE2" s="1" t="s">
         <v>157</v>
@@ -15933,13 +14635,13 @@
         <v>159</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>440</v>
+        <v>527</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>164</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>419</v>
+        <v>528</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>171</v>
@@ -15972,7 +14674,7 @@
         <v>164</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>285</v>
+        <v>520</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>157</v>
@@ -16032,7 +14734,7 @@
         <v>157</v>
       </c>
       <c r="EF2" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="EG2" s="1" t="s">
         <v>159</v>
@@ -16041,27 +14743,30 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>428</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>155</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>437</v>
+        <v>523</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>437</v>
+        <v>524</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>410</v>
+        <v>525</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>515</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>152</v>
@@ -16072,17 +14777,17 @@
       <c r="L3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>276</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>277</v>
+        <v>506</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>278</v>
+        <v>507</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>283</v>
+        <v>510</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>411</v>
@@ -16090,23 +14795,23 @@
       <c r="R3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="2" t="s">
         <v>169</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="1" t="s">
         <v>438</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>413</v>
+      <c r="W3" s="1" t="s">
+        <v>516</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>414</v>
+        <v>519</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>191</v>
@@ -16115,7 +14820,7 @@
         <v>157</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>190</v>
+        <v>530</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>159</v>
@@ -16141,7 +14846,7 @@
       <c r="AI3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AJ3" s="2" t="s">
         <v>157</v>
       </c>
       <c r="AK3" s="1" t="s">
@@ -16153,7 +14858,7 @@
       <c r="AM3" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AN3" s="1" t="s">
         <v>430</v>
       </c>
       <c r="AO3" s="1" t="s">
@@ -16163,7 +14868,7 @@
         <v>411</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>415</v>
+        <v>283</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>152</v>
@@ -16187,7 +14892,7 @@
         <v>157</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>169</v>
+        <v>517</v>
       </c>
       <c r="BA3" s="1" t="s">
         <v>159</v>
@@ -16250,7 +14955,7 @@
         <v>151</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>159</v>
+        <v>518</v>
       </c>
       <c r="CA3" s="1" t="s">
         <v>157</v>
@@ -16259,7 +14964,7 @@
         <v>157</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="CE3" s="1" t="s">
         <v>157</v>
@@ -16268,13 +14973,13 @@
         <v>159</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>443</v>
+        <v>531</v>
       </c>
       <c r="CJ3" s="1" t="s">
         <v>164</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>419</v>
+        <v>528</v>
       </c>
       <c r="CL3" s="1" t="s">
         <v>171</v>
@@ -16307,7 +15012,7 @@
         <v>164</v>
       </c>
       <c r="DJ3" s="1" t="s">
-        <v>285</v>
+        <v>520</v>
       </c>
       <c r="DK3" s="1" t="s">
         <v>157</v>
@@ -16354,6 +15059,9 @@
       <c r="DY3" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="EB3" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="EC3" s="1" t="s">
         <v>173</v>
       </c>
@@ -16363,6 +15071,9 @@
       <c r="EE3" s="1" t="s">
         <v>157</v>
       </c>
+      <c r="EF3" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="EG3" s="1" t="s">
         <v>159</v>
       </c>
@@ -16370,1892 +15081,697 @@
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:139" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="G4" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="N4" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="R4" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="S4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP4" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="AQ4" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="AR4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="AX4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ4" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BG4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH4" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="BI4" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="BJ4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BL4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BN4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="BP4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BQ4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BR4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BS4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BT4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BV4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="BW4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="BX4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="BY4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="BZ4" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="CA4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="CB4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="CD4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="CE4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="CG4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="CH4" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="CJ4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CK4" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="CL4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="CR4" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="CT4" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="CV4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="DA4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="DC4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DD4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DE4" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="DF4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="DG4" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="DJ4" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="DK4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DL4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DM4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DN4" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="DO4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DP4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DQ4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DR4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DS4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DT4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DU4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DV4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DW4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DX4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DY4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="EB4" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="EC4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="ED4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="EE4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="EF4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="EG4" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="EI4" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:139" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T5" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="U5" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="AB4" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AP4" s="1" t="s">
+      <c r="V5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AP5" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="AQ4" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="AR4" s="1" t="s">
+      <c r="AQ5" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="AR5" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AS5" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="AT4" s="1" t="s">
+      <c r="AT5" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="AU4" s="1" t="s">
+      <c r="AU5" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="AV4" s="1" t="s">
+      <c r="AV5" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="AX4" s="1" t="s">
+      <c r="AX5" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AY4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC4" s="1" t="s">
+      <c r="AY5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="AZ5" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="BA5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BB5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BC5" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="BF4" s="1" t="s">
+      <c r="BF5" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="BG4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="BI4" s="1" t="s">
+      <c r="BG5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BH5" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="BI5" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="BJ4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BL4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BN4" s="1" t="s">
+      <c r="BJ5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BL5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BM5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="BN5" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="BP4" s="1" t="s">
+      <c r="BP5" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="BQ4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BR4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BS4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BT4" s="1" t="s">
+      <c r="BQ5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="BR5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BS5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="BT5" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="BV4" s="1" t="s">
+      <c r="BV5" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="BW4" s="1" t="s">
+      <c r="BW5" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="BX4" s="1" t="s">
+      <c r="BX5" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="BY4" s="1" t="s">
+      <c r="BY5" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="BZ4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CA4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CB4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CD4" s="1" t="s">
+      <c r="BZ5" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="CA5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="CB5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="CD5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="CE5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="CG5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="CH5" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="CJ5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="CK5" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="CL5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="CR5" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="CT5" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="CV5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="DA5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="DC5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DD5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DE5" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="CE4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CG4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CH4" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="CJ4" s="1" t="s">
+      <c r="DF5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="DG5" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="CK4" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="CL4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CR4" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="CT4" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="CV4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="DA4" s="1" t="s">
+      <c r="DJ5" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="DK5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DL5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DM5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DN5" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="DO5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DP5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DQ5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DR5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DS5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DT5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DU5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DV5" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="DW5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="DX5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="DY5" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="EB5" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="EC5" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="DC4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DD4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DE4" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="DF4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DG4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="DJ4" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="DK4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DL4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DM4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DN4" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="DO4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DP4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DQ4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DR4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DS4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DT4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DU4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DV4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DW4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DX4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DY4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EB4" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="EC4" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="ED4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EE4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EF4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="EG4" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="EI4" s="1" t="s">
+      <c r="ED5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="EE5" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="EF5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="EG5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="EI5" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AM5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN5" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="AQ5" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="AR5" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="AS5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="AU5" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BC5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BM5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BN5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BP5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BQ5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BR5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BS5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BT5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BV5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BW5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BX5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BY5" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BZ5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CA5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CB5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CD5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="CE5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="CG5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CH5" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="CJ5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="CK5" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="CL5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CR5" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="CT5" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="CV5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="DA5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DC5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DD5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DE5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="DF5" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DG5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="DJ5" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="DK5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DL5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DM5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DN5" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="DO5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DP5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DQ5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DR5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DS5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DT5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DU5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DV5" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="DW5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="DX5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="DY5" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="EC5" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="ED5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EE5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="EG5" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="EI5" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
+    <row r="6" spans="1:139" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:139" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:139" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:139" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:139" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:139" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:139" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:139" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:139" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:139" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:139" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="15" width="10.77734375" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="16.44140625" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.77734375" customWidth="1"/>
-    <col min="20" max="20" width="14.109375" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" customWidth="1"/>
-    <col min="22" max="23" width="11.88671875" customWidth="1"/>
-    <col min="24" max="24" width="10.77734375" customWidth="1"/>
-    <col min="25" max="25" width="11.88671875" customWidth="1"/>
-    <col min="26" max="27" width="9.6640625" customWidth="1"/>
-    <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="8.6640625" customWidth="1"/>
-    <col min="30" max="30" width="11.88671875" customWidth="1"/>
-    <col min="31" max="31" width="14.109375" customWidth="1"/>
-    <col min="32" max="32" width="7.6640625" customWidth="1"/>
-    <col min="33" max="33" width="9.6640625" customWidth="1"/>
-    <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="14.109375" customWidth="1"/>
-    <col min="36" max="36" width="10.77734375" customWidth="1"/>
-    <col min="37" max="37" width="11.88671875" customWidth="1"/>
-    <col min="38" max="39" width="10.77734375" customWidth="1"/>
-    <col min="40" max="40" width="11.88671875" customWidth="1"/>
-    <col min="41" max="41" width="16.44140625" customWidth="1"/>
-    <col min="42" max="43" width="11.88671875" customWidth="1"/>
-    <col min="44" max="44" width="14.109375" customWidth="1"/>
-    <col min="45" max="45" width="16.44140625" customWidth="1"/>
-    <col min="46" max="46" width="14.109375" customWidth="1"/>
-    <col min="47" max="47" width="16.44140625" customWidth="1"/>
-    <col min="48" max="48" width="11.88671875" customWidth="1"/>
-    <col min="49" max="49" width="5.6640625" customWidth="1"/>
-    <col min="50" max="50" width="6.6640625" customWidth="1"/>
-    <col min="51" max="51" width="14.109375" customWidth="1"/>
-    <col min="52" max="52" width="9.6640625" customWidth="1"/>
-    <col min="53" max="53" width="10.77734375" customWidth="1"/>
-    <col min="54" max="54" width="15.21875" customWidth="1"/>
-    <col min="55" max="55" width="14.109375" customWidth="1"/>
-    <col min="56" max="56" width="20.88671875" customWidth="1"/>
-    <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="14.109375" customWidth="1"/>
-    <col min="59" max="59" width="15.21875" customWidth="1"/>
-    <col min="60" max="60" width="10.77734375" customWidth="1"/>
-    <col min="61" max="61" width="5.6640625" customWidth="1"/>
-    <col min="62" max="62" width="10.77734375" customWidth="1"/>
-    <col min="63" max="63" width="16.44140625" customWidth="1"/>
-    <col min="64" max="64" width="11.88671875" customWidth="1"/>
-    <col min="65" max="65" width="13" customWidth="1"/>
-    <col min="66" max="66" width="10.77734375" customWidth="1"/>
-    <col min="67" max="68" width="11.88671875" customWidth="1"/>
-    <col min="69" max="69" width="10.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="2" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="15" width="10.77734375" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="17" max="17" width="16.44140625" customWidth="1"/>
-    <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="10.77734375" customWidth="1"/>
-    <col min="20" max="20" width="14.109375" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" customWidth="1"/>
-    <col min="22" max="23" width="11.88671875" customWidth="1"/>
-    <col min="24" max="24" width="10.77734375" customWidth="1"/>
-    <col min="25" max="25" width="11.88671875" customWidth="1"/>
-    <col min="26" max="27" width="9.6640625" customWidth="1"/>
-    <col min="28" max="28" width="13" customWidth="1"/>
-    <col min="29" max="29" width="8.6640625" customWidth="1"/>
-    <col min="30" max="30" width="11.88671875" customWidth="1"/>
-    <col min="31" max="31" width="14.109375" customWidth="1"/>
-    <col min="32" max="32" width="7.6640625" customWidth="1"/>
-    <col min="33" max="33" width="9.6640625" customWidth="1"/>
-    <col min="34" max="34" width="13" customWidth="1"/>
-    <col min="35" max="35" width="14.109375" customWidth="1"/>
-    <col min="36" max="36" width="10.77734375" customWidth="1"/>
-    <col min="37" max="37" width="11.88671875" customWidth="1"/>
-    <col min="38" max="39" width="10.77734375" customWidth="1"/>
-    <col min="40" max="40" width="11.88671875" customWidth="1"/>
-    <col min="41" max="41" width="16.44140625" customWidth="1"/>
-    <col min="42" max="43" width="11.88671875" customWidth="1"/>
-    <col min="44" max="44" width="14.109375" customWidth="1"/>
-    <col min="45" max="45" width="16.44140625" customWidth="1"/>
-    <col min="46" max="46" width="14.109375" customWidth="1"/>
-    <col min="47" max="47" width="16.44140625" customWidth="1"/>
-    <col min="48" max="48" width="11.88671875" customWidth="1"/>
-    <col min="49" max="49" width="5.6640625" customWidth="1"/>
-    <col min="50" max="50" width="6.6640625" customWidth="1"/>
-    <col min="51" max="51" width="14.109375" customWidth="1"/>
-    <col min="52" max="52" width="9.6640625" customWidth="1"/>
-    <col min="53" max="53" width="10.77734375" customWidth="1"/>
-    <col min="54" max="54" width="15.21875" customWidth="1"/>
-    <col min="55" max="55" width="14.109375" customWidth="1"/>
-    <col min="56" max="56" width="20.88671875" customWidth="1"/>
-    <col min="57" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="14.109375" customWidth="1"/>
-    <col min="59" max="59" width="15.21875" customWidth="1"/>
-    <col min="60" max="60" width="10.77734375" customWidth="1"/>
-    <col min="61" max="61" width="5.6640625" customWidth="1"/>
-    <col min="62" max="62" width="10.77734375" customWidth="1"/>
-    <col min="63" max="63" width="16.44140625" customWidth="1"/>
-    <col min="64" max="64" width="11.88671875" customWidth="1"/>
-    <col min="65" max="65" width="13" customWidth="1"/>
-    <col min="66" max="66" width="10.77734375" customWidth="1"/>
-    <col min="67" max="68" width="11.88671875" customWidth="1"/>
-    <col min="69" max="69" width="10.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="2" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK3" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BK3" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>